--- a/ModelRuns/WeatheringParamStudy/model_parameter_and_output_summary_wxing_5x5x5.xlsx
+++ b/ModelRuns/WeatheringParamStudy/model_parameter_and_output_summary_wxing_5x5x5.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Data on Grain Hill runs with 5x5x5 parameter study of disturbance rate, weathering rate, and uplift interval</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>Runs for a 3x3 plot</t>
   </si>
 </sst>
 </file>
@@ -377,45 +380,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -434,8 +437,11 @@
       <c r="F9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -457,7 +463,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -479,8 +485,17 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>101</v>
+      </c>
+      <c r="J11">
+        <v>113</v>
+      </c>
+      <c r="K11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -502,8 +517,20 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>51</v>
+      </c>
+      <c r="J12">
+        <v>63</v>
+      </c>
+      <c r="K12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -525,8 +552,17 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -548,8 +584,11 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -572,7 +611,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>

--- a/ModelRuns/WeatheringParamStudy/model_parameter_and_output_summary_wxing_5x5x5.xlsx
+++ b/ModelRuns/WeatheringParamStudy/model_parameter_and_output_summary_wxing_5x5x5.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Data on Grain Hill runs with 5x5x5 parameter study of disturbance rate, weathering rate, and uplift interval</t>
   </si>
@@ -65,7 +65,19 @@
     <t>w</t>
   </si>
   <si>
-    <t>Runs for a 3x3 plot</t>
+    <t>Max height</t>
+  </si>
+  <si>
+    <t>Mean height</t>
+  </si>
+  <si>
+    <t>Mean gradient</t>
+  </si>
+  <si>
+    <t>Mean soil thickness</t>
+  </si>
+  <si>
+    <t>Fractional soil cover</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,8 +449,20 @@
       <c r="F9" t="s">
         <v>10</v>
       </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -462,6 +486,21 @@
       <c r="F10">
         <v>1E-3</v>
       </c>
+      <c r="G10">
+        <v>133</v>
+      </c>
+      <c r="H10">
+        <v>66.071146245099996</v>
+      </c>
+      <c r="I10">
+        <v>1.2049062557500001</v>
+      </c>
+      <c r="J10">
+        <v>0.49805447470800002</v>
+      </c>
+      <c r="K10">
+        <v>0.27542857142900001</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -485,14 +524,20 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
+      <c r="G11">
+        <v>134</v>
+      </c>
+      <c r="H11">
+        <v>65.5612648221</v>
+      </c>
       <c r="I11">
-        <v>101</v>
+        <v>1.1820676798900001</v>
       </c>
       <c r="J11">
-        <v>113</v>
+        <v>0.44357976653699999</v>
       </c>
       <c r="K11">
-        <v>125</v>
+        <v>0.249138920781</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -517,17 +562,20 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
+      <c r="G12">
+        <v>123.5</v>
+      </c>
+      <c r="H12">
+        <v>64.371541501999999</v>
       </c>
       <c r="I12">
-        <v>51</v>
+        <v>1.1227703664399999</v>
       </c>
       <c r="J12">
-        <v>63</v>
+        <v>0.40077821011699999</v>
       </c>
       <c r="K12">
-        <v>75</v>
+        <v>0.23241954708000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -552,14 +600,20 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+      <c r="H13">
+        <v>62.019762845800003</v>
+      </c>
       <c r="I13">
-        <v>1</v>
+        <v>1.07483822107</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>0.45914396887199999</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>0.249154453213</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -584,8 +638,20 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="J14" t="s">
-        <v>8</v>
+      <c r="G14">
+        <v>107.5</v>
+      </c>
+      <c r="H14">
+        <v>57.509881422900001</v>
+      </c>
+      <c r="I14">
+        <v>0.96526356883700004</v>
+      </c>
+      <c r="J14">
+        <v>0.43579766536999998</v>
+      </c>
+      <c r="K14">
+        <v>0.24028268551199999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -610,6 +676,21 @@
       <c r="F15">
         <v>1E-3</v>
       </c>
+      <c r="G15">
+        <v>131.5</v>
+      </c>
+      <c r="H15">
+        <v>66.450592885399999</v>
+      </c>
+      <c r="I15">
+        <v>1.1615021376600001</v>
+      </c>
+      <c r="J15">
+        <v>0.41634241245100001</v>
+      </c>
+      <c r="K15">
+        <v>0.232369942197</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -634,8 +715,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>125.5</v>
+      </c>
+      <c r="H16">
+        <v>64.573122529599999</v>
+      </c>
+      <c r="I16">
+        <v>1.1387357216</v>
+      </c>
+      <c r="J16">
+        <v>0.47859922178999997</v>
+      </c>
+      <c r="K16">
+        <v>0.272417707151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -658,8 +754,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>122.5</v>
+      </c>
+      <c r="H17">
+        <v>63.134387351800001</v>
+      </c>
+      <c r="I17">
+        <v>1.07483822107</v>
+      </c>
+      <c r="J17">
+        <v>0.44357976653699999</v>
+      </c>
+      <c r="K17">
+        <v>0.25028571428599999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -682,8 +793,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>109</v>
+      </c>
+      <c r="H18">
+        <v>58.387351778700001</v>
+      </c>
+      <c r="I18">
+        <v>0.98126500389399995</v>
+      </c>
+      <c r="J18">
+        <v>0.517509727626</v>
+      </c>
+      <c r="K18">
+        <v>0.25908558030500001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -706,8 +832,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>88.5</v>
+      </c>
+      <c r="H19">
+        <v>49.513833992099997</v>
+      </c>
+      <c r="I19">
+        <v>0.780444287944</v>
+      </c>
+      <c r="J19">
+        <v>0.34630350194600001</v>
+      </c>
+      <c r="K19">
+        <v>0.212792127921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -728,8 +869,23 @@
       <c r="F20">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>125</v>
+      </c>
+      <c r="H20">
+        <v>63.549407114600001</v>
+      </c>
+      <c r="I20">
+        <v>1.11815213941</v>
+      </c>
+      <c r="J20">
+        <v>0.43968871595300002</v>
+      </c>
+      <c r="K20">
+        <v>0.24731182795699999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -751,8 +907,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>116.5</v>
+      </c>
+      <c r="H21">
+        <v>62.015810276700002</v>
+      </c>
+      <c r="I21">
+        <v>1.0474896578899999</v>
+      </c>
+      <c r="J21">
+        <v>0.47081712062300002</v>
+      </c>
+      <c r="K21">
+        <v>0.257142857143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
@@ -774,8 +945,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>105.5</v>
+      </c>
+      <c r="H22">
+        <v>56.996047430799997</v>
+      </c>
+      <c r="I22">
+        <v>0.94935233352799997</v>
+      </c>
+      <c r="J22">
+        <v>0.47859922178999997</v>
+      </c>
+      <c r="K22">
+        <v>0.25802879291300002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -797,8 +983,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>87</v>
+      </c>
+      <c r="H23">
+        <v>48.458498023700002</v>
+      </c>
+      <c r="I23">
+        <v>0.78159884470100005</v>
+      </c>
+      <c r="J23">
+        <v>0.35408560311300002</v>
+      </c>
+      <c r="K23">
+        <v>0.219543147208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -820,8 +1021,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>65.5</v>
+      </c>
+      <c r="H24">
+        <v>37.391304347800002</v>
+      </c>
+      <c r="I24">
+        <v>0.58878786625500001</v>
+      </c>
+      <c r="J24">
+        <v>0.27626459143999998</v>
+      </c>
+      <c r="K24">
+        <v>0.180500658762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
@@ -843,8 +1059,23 @@
       <c r="F25">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>118.5</v>
+      </c>
+      <c r="H25">
+        <v>62.422924901199998</v>
+      </c>
+      <c r="I25">
+        <v>1.06800108028</v>
+      </c>
+      <c r="J25">
+        <v>0.43190661478600001</v>
+      </c>
+      <c r="K25">
+        <v>0.24854819976799999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17</v>
       </c>
@@ -867,8 +1098,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>111</v>
+      </c>
+      <c r="H26">
+        <v>58.4387351779</v>
+      </c>
+      <c r="I26">
+        <v>0.99044733810300001</v>
+      </c>
+      <c r="J26">
+        <v>0.46303501945499997</v>
+      </c>
+      <c r="K26">
+        <v>0.26052332195700001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>18</v>
       </c>
@@ -891,8 +1137,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>88</v>
+      </c>
+      <c r="H27">
+        <v>49.6679841897</v>
+      </c>
+      <c r="I27">
+        <v>0.79186357587099998</v>
+      </c>
+      <c r="J27">
+        <v>0.38132295719800002</v>
+      </c>
+      <c r="K27">
+        <v>0.222906403941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>19</v>
       </c>
@@ -915,8 +1176,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>67.5</v>
+      </c>
+      <c r="H28">
+        <v>38.351778656100002</v>
+      </c>
+      <c r="I28">
+        <v>0.60700821507900005</v>
+      </c>
+      <c r="J28">
+        <v>0.26070038910499999</v>
+      </c>
+      <c r="K28">
+        <v>0.16815286624199999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20</v>
       </c>
@@ -939,8 +1215,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>50.5</v>
+      </c>
+      <c r="H29">
+        <v>27.9249011858</v>
+      </c>
+      <c r="I29">
+        <v>0.42675304136699999</v>
+      </c>
+      <c r="J29">
+        <v>0.186770428016</v>
+      </c>
+      <c r="K29">
+        <v>0.113306982872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21</v>
       </c>
@@ -961,8 +1252,23 @@
       <c r="F30">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>107</v>
+      </c>
+      <c r="H30">
+        <v>57.098814229200002</v>
+      </c>
+      <c r="I30">
+        <v>0.95842642804099998</v>
+      </c>
+      <c r="J30">
+        <v>0.45525291828800002</v>
+      </c>
+      <c r="K30">
+        <v>0.26057142857100002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>22</v>
       </c>
@@ -984,8 +1290,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>87.5</v>
+      </c>
+      <c r="H31">
+        <v>48.316205533599998</v>
+      </c>
+      <c r="I31">
+        <v>0.78729946869</v>
+      </c>
+      <c r="J31">
+        <v>0.36964980544699999</v>
+      </c>
+      <c r="K31">
+        <v>0.21583652618099999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23</v>
       </c>
@@ -1007,8 +1328,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>66</v>
+      </c>
+      <c r="H32">
+        <v>37.363636363600001</v>
+      </c>
+      <c r="I32">
+        <v>0.59217937672900001</v>
+      </c>
+      <c r="J32">
+        <v>0.350194552529</v>
+      </c>
+      <c r="K32">
+        <v>0.20971867007700001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>24</v>
       </c>
@@ -1030,8 +1366,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>49</v>
+      </c>
+      <c r="H33">
+        <v>26.889328063200001</v>
+      </c>
+      <c r="I33">
+        <v>0.43588125572800002</v>
+      </c>
+      <c r="J33">
+        <v>0.225680933852</v>
+      </c>
+      <c r="K33">
+        <v>0.14925373134299999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
@@ -1053,8 +1404,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <v>19.1996047431</v>
+      </c>
+      <c r="I34">
+        <v>0.27841053802100002</v>
+      </c>
+      <c r="J34">
+        <v>0.120622568093</v>
+      </c>
+      <c r="K34">
+        <v>7.9945799457999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>26</v>
       </c>
@@ -1076,8 +1442,23 @@
       <c r="F35">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>67.5</v>
+      </c>
+      <c r="H35">
+        <v>34.043478260900002</v>
+      </c>
+      <c r="I35">
+        <v>0.61159036220899998</v>
+      </c>
+      <c r="J35">
+        <v>0.73540856031099999</v>
+      </c>
+      <c r="K35">
+        <v>0.70699432892199998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
@@ -1100,8 +1481,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>67</v>
+      </c>
+      <c r="H36">
+        <v>34.268774703600002</v>
+      </c>
+      <c r="I36">
+        <v>0.60248018779699997</v>
+      </c>
+      <c r="J36">
+        <v>0.634241245136</v>
+      </c>
+      <c r="K36">
+        <v>0.610169491525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>28</v>
       </c>
@@ -1124,8 +1520,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>65.5</v>
+      </c>
+      <c r="H37">
+        <v>33.517786561299999</v>
+      </c>
+      <c r="I37">
+        <v>0.58875178635600001</v>
+      </c>
+      <c r="J37">
+        <v>0.67704280155600005</v>
+      </c>
+      <c r="K37">
+        <v>0.64168190128000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>29</v>
       </c>
@@ -1148,8 +1559,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>60.5</v>
+      </c>
+      <c r="H38">
+        <v>32.391304347800002</v>
+      </c>
+      <c r="I38">
+        <v>0.54769286167999998</v>
+      </c>
+      <c r="J38">
+        <v>0.75486381322999996</v>
+      </c>
+      <c r="K38">
+        <v>0.68139963167600004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>30</v>
       </c>
@@ -1172,8 +1598,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>49.5</v>
+      </c>
+      <c r="H39">
+        <v>28.533596837899999</v>
+      </c>
+      <c r="I39">
+        <v>0.447282503705</v>
+      </c>
+      <c r="J39">
+        <v>0.70038910505800001</v>
+      </c>
+      <c r="K39">
+        <v>0.64144144144100002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>31</v>
       </c>
@@ -1196,8 +1637,23 @@
       <c r="F40">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>68.5</v>
+      </c>
+      <c r="H40">
+        <v>34.790513834000002</v>
+      </c>
+      <c r="I40">
+        <v>0.61615446938999996</v>
+      </c>
+      <c r="J40">
+        <v>0.66536964980500002</v>
+      </c>
+      <c r="K40">
+        <v>0.64007421150300003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>32</v>
       </c>
@@ -1221,8 +1677,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>66.5</v>
+      </c>
+      <c r="H41">
+        <v>34.383399209499999</v>
+      </c>
+      <c r="I41">
+        <v>0.59560696710200001</v>
+      </c>
+      <c r="J41">
+        <v>0.71206225680900004</v>
+      </c>
+      <c r="K41">
+        <v>0.648312611012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>33</v>
       </c>
@@ -1246,8 +1717,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>62</v>
+      </c>
+      <c r="H42">
+        <v>33.4782608696</v>
+      </c>
+      <c r="I42">
+        <v>0.55682107604099995</v>
+      </c>
+      <c r="J42">
+        <v>0.68871595330699997</v>
+      </c>
+      <c r="K42">
+        <v>0.61791590493600002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>34</v>
       </c>
@@ -1271,8 +1757,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>50.5</v>
+      </c>
+      <c r="H43">
+        <v>29.201581027700001</v>
+      </c>
+      <c r="I43">
+        <v>0.44957357727000002</v>
+      </c>
+      <c r="J43">
+        <v>0.70428015564199997</v>
+      </c>
+      <c r="K43">
+        <v>0.63023679417099998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35</v>
       </c>
@@ -1296,8 +1797,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>32</v>
+      </c>
+      <c r="H44">
+        <v>19.988142292500001</v>
+      </c>
+      <c r="I44">
+        <v>0.27613750440500001</v>
+      </c>
+      <c r="J44">
+        <v>0.65369649805399999</v>
+      </c>
+      <c r="K44">
+        <v>0.593692022263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>36</v>
       </c>
@@ -1319,8 +1835,23 @@
       <c r="F45">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>65.5</v>
+      </c>
+      <c r="H45">
+        <v>33.482213438700001</v>
+      </c>
+      <c r="I45">
+        <v>0.59106089987099997</v>
+      </c>
+      <c r="J45">
+        <v>0.70817120622600005</v>
+      </c>
+      <c r="K45">
+        <v>0.66975881261600001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37</v>
       </c>
@@ -1343,8 +1874,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>61</v>
+      </c>
+      <c r="H46">
+        <v>32.695652173900001</v>
+      </c>
+      <c r="I46">
+        <v>0.54769286167999998</v>
+      </c>
+      <c r="J46">
+        <v>0.79377431906600004</v>
+      </c>
+      <c r="K46">
+        <v>0.69685767097999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -1367,8 +1913,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>49.5</v>
+      </c>
+      <c r="H47">
+        <v>28.6245059289</v>
+      </c>
+      <c r="I47">
+        <v>0.44271839652400002</v>
+      </c>
+      <c r="J47">
+        <v>0.67704280155600005</v>
+      </c>
+      <c r="K47">
+        <v>0.64376130198899995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>39</v>
       </c>
@@ -1391,8 +1952,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>30.5</v>
+      </c>
+      <c r="H48">
+        <v>18.873517786600001</v>
+      </c>
+      <c r="I48">
+        <v>0.27384643083999999</v>
+      </c>
+      <c r="J48">
+        <v>0.56809338521399999</v>
+      </c>
+      <c r="K48">
+        <v>0.54934823091200002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40</v>
       </c>
@@ -1415,8 +1991,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>13.5</v>
+      </c>
+      <c r="H49">
+        <v>8.2905138339899995</v>
+      </c>
+      <c r="I49">
+        <v>0.118666786697</v>
+      </c>
+      <c r="J49">
+        <v>0.58365758754899999</v>
+      </c>
+      <c r="K49">
+        <v>0.56896551724099997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>41</v>
       </c>
@@ -1439,8 +2030,23 @@
       <c r="F50">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>62.5</v>
+      </c>
+      <c r="H50">
+        <v>33.849802371499997</v>
+      </c>
+      <c r="I50">
+        <v>0.55682107604099995</v>
+      </c>
+      <c r="J50">
+        <v>0.77431906614799995</v>
+      </c>
+      <c r="K50">
+        <v>0.67256637168099997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>42</v>
       </c>
@@ -1464,8 +2070,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>50.5</v>
+      </c>
+      <c r="H51">
+        <v>29.4466403162</v>
+      </c>
+      <c r="I51">
+        <v>0.447282503705</v>
+      </c>
+      <c r="J51">
+        <v>0.70428015564199997</v>
+      </c>
+      <c r="K51">
+        <v>0.61552346570399996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>43</v>
       </c>
@@ -1489,8 +2110,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>32</v>
+      </c>
+      <c r="H52">
+        <v>19.956521739100001</v>
+      </c>
+      <c r="I52">
+        <v>0.276119464456</v>
+      </c>
+      <c r="J52">
+        <v>0.66147859922200003</v>
+      </c>
+      <c r="K52">
+        <v>0.61887477313999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>44</v>
       </c>
@@ -1514,8 +2150,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>9.5731225296400009</v>
+      </c>
+      <c r="I53">
+        <v>0.12550392749399999</v>
+      </c>
+      <c r="J53">
+        <v>0.56809338521399999</v>
+      </c>
+      <c r="K53">
+        <v>0.58857142857099998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>45</v>
       </c>
@@ -1539,8 +2190,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>3.8221343873500002</v>
+      </c>
+      <c r="I54">
+        <v>4.3349998241599998E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.55252918287899999</v>
+      </c>
+      <c r="K54">
+        <v>0.58317399617599996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>46</v>
       </c>
@@ -1562,8 +2228,23 @@
       <c r="F55">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>49.5</v>
+      </c>
+      <c r="H55">
+        <v>28.166007905099999</v>
+      </c>
+      <c r="I55">
+        <v>0.44270035657500001</v>
+      </c>
+      <c r="J55">
+        <v>0.75097276264599999</v>
+      </c>
+      <c r="K55">
+        <v>0.66972477064199998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>47</v>
       </c>
@@ -1586,8 +2267,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>31</v>
+      </c>
+      <c r="H56">
+        <v>18.798418972299999</v>
+      </c>
+      <c r="I56">
+        <v>0.27157339722399998</v>
+      </c>
+      <c r="J56">
+        <v>0.634241245136</v>
+      </c>
+      <c r="K56">
+        <v>0.61121495327099995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>48</v>
       </c>
@@ -1610,8 +2306,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>13.5</v>
+      </c>
+      <c r="H57">
+        <v>8.3359683794499997</v>
+      </c>
+      <c r="I57">
+        <v>0.11981232348</v>
+      </c>
+      <c r="J57">
+        <v>0.66536964980500002</v>
+      </c>
+      <c r="K57">
+        <v>0.66023166023199997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>49</v>
       </c>
@@ -1634,8 +2345,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>4.5</v>
+      </c>
+      <c r="H58">
+        <v>2.5573122529600001</v>
+      </c>
+      <c r="I58">
+        <v>3.6503837470600001E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.56031128404700004</v>
+      </c>
+      <c r="K58">
+        <v>0.619883040936</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50</v>
       </c>
@@ -1658,8 +2384,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>0.58498023715400005</v>
+      </c>
+      <c r="I59">
+        <v>5.6825840391699998E-3</v>
+      </c>
+      <c r="J59">
+        <v>0.49027237354100001</v>
+      </c>
+      <c r="K59">
+        <v>0.578629032258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>51</v>
       </c>
@@ -1681,8 +2422,23 @@
       <c r="F60">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>62</v>
+      </c>
+      <c r="H60">
+        <v>32.229249011900002</v>
+      </c>
+      <c r="I60">
+        <v>0.56138518322200004</v>
+      </c>
+      <c r="J60">
+        <v>0.98054474708200001</v>
+      </c>
+      <c r="K60">
+        <v>0.97076023391800004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>52</v>
       </c>
@@ -1704,8 +2460,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>62</v>
+      </c>
+      <c r="H61">
+        <v>32.083003952600002</v>
+      </c>
+      <c r="I61">
+        <v>0.55682107604099995</v>
+      </c>
+      <c r="J61">
+        <v>0.98054474708200001</v>
+      </c>
+      <c r="K61">
+        <v>0.94174757281599997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>53</v>
       </c>
@@ -1727,8 +2498,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>59.5</v>
+      </c>
+      <c r="H62">
+        <v>31.4071146245</v>
+      </c>
+      <c r="I62">
+        <v>0.53856464731800002</v>
+      </c>
+      <c r="J62">
+        <v>0.93385214007799999</v>
+      </c>
+      <c r="K62">
+        <v>0.91262135922300003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>54</v>
       </c>
@@ -1750,8 +2536,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>52.5</v>
+      </c>
+      <c r="H63">
+        <v>29.2608695652</v>
+      </c>
+      <c r="I63">
+        <v>0.47466714678900002</v>
+      </c>
+      <c r="J63">
+        <v>0.94941634241200001</v>
+      </c>
+      <c r="K63">
+        <v>0.904854368932</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>55</v>
       </c>
@@ -1773,8 +2574,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>39</v>
+      </c>
+      <c r="H64">
+        <v>23.4150197628</v>
+      </c>
+      <c r="I64">
+        <v>0.351436252911</v>
+      </c>
+      <c r="J64">
+        <v>0.94552529182900003</v>
+      </c>
+      <c r="K64">
+        <v>0.89320388349500002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>56</v>
       </c>
@@ -1796,8 +2612,23 @@
       <c r="F65">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>63</v>
+      </c>
+      <c r="H65">
+        <v>33.019762845800003</v>
+      </c>
+      <c r="I65">
+        <v>0.56365821683700001</v>
+      </c>
+      <c r="J65">
+        <v>0.99221789883300004</v>
+      </c>
+      <c r="K65">
+        <v>0.94219653179200002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>57</v>
       </c>
@@ -1820,8 +2651,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>61</v>
+      </c>
+      <c r="H66">
+        <v>32.466403162100001</v>
+      </c>
+      <c r="I66">
+        <v>0.54540178811499995</v>
+      </c>
+      <c r="J66">
+        <v>0.96887159533099998</v>
+      </c>
+      <c r="K66">
+        <v>0.94003868471999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>58</v>
       </c>
@@ -1844,8 +2690,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>53.5</v>
+      </c>
+      <c r="H67">
+        <v>30.233201580999999</v>
+      </c>
+      <c r="I67">
+        <v>0.47694018040500002</v>
+      </c>
+      <c r="J67">
+        <v>0.95330739299599998</v>
+      </c>
+      <c r="K67">
+        <v>0.90135396518400002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>59</v>
       </c>
@@ -1868,8 +2729,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>24.4466403162</v>
+      </c>
+      <c r="I68">
+        <v>0.35372732647600003</v>
+      </c>
+      <c r="J68">
+        <v>0.96498054474700001</v>
+      </c>
+      <c r="K68">
+        <v>0.89980732177300005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>60</v>
       </c>
@@ -1892,8 +2768,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>21.5</v>
+      </c>
+      <c r="H69">
+        <v>13.9209486166</v>
+      </c>
+      <c r="I69">
+        <v>0.18485536079199999</v>
+      </c>
+      <c r="J69">
+        <v>0.94163424124499995</v>
+      </c>
+      <c r="K69">
+        <v>0.868471953578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>61</v>
       </c>
@@ -1914,8 +2805,23 @@
       <c r="F70">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>59.5</v>
+      </c>
+      <c r="H70">
+        <v>31.434782608700001</v>
+      </c>
+      <c r="I70">
+        <v>0.53856464731800002</v>
+      </c>
+      <c r="J70">
+        <v>0.94552529182900003</v>
+      </c>
+      <c r="K70">
+        <v>0.92787524366499996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>62</v>
       </c>
@@ -1937,8 +2843,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>53</v>
+      </c>
+      <c r="H71">
+        <v>29.237154150199999</v>
+      </c>
+      <c r="I71">
+        <v>0.47694018040500002</v>
+      </c>
+      <c r="J71">
+        <v>0.95330739299599998</v>
+      </c>
+      <c r="K71">
+        <v>0.89668615984400002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>63</v>
       </c>
@@ -1960,8 +2881,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>39</v>
+      </c>
+      <c r="H72">
+        <v>23.351778656099999</v>
+      </c>
+      <c r="I72">
+        <v>0.34914517934599998</v>
+      </c>
+      <c r="J72">
+        <v>0.94163424124499995</v>
+      </c>
+      <c r="K72">
+        <v>0.88888888888899997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>64</v>
       </c>
@@ -1983,8 +2919,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>20.5</v>
+      </c>
+      <c r="H73">
+        <v>13.0158102767</v>
+      </c>
+      <c r="I73">
+        <v>0.18370982400899999</v>
+      </c>
+      <c r="J73">
+        <v>0.89105058365800005</v>
+      </c>
+      <c r="K73">
+        <v>0.86964980544699999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>65</v>
       </c>
@@ -2006,8 +2957,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>7.5</v>
+      </c>
+      <c r="H74">
+        <v>4.6007905138299998</v>
+      </c>
+      <c r="I74">
+        <v>6.1615446939E-2</v>
+      </c>
+      <c r="J74">
+        <v>0.93385214007799999</v>
+      </c>
+      <c r="K74">
+        <v>0.876712328767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>66</v>
       </c>
@@ -2029,8 +2995,23 @@
       <c r="F75">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>54</v>
+      </c>
+      <c r="H75">
+        <v>30.201581027700001</v>
+      </c>
+      <c r="I75">
+        <v>0.48381340109999998</v>
+      </c>
+      <c r="J75">
+        <v>0.95330739299599998</v>
+      </c>
+      <c r="K75">
+        <v>0.88132295719800002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>67</v>
       </c>
@@ -2053,8 +3034,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>24.379446640299999</v>
+      </c>
+      <c r="I76">
+        <v>0.35600036009199998</v>
+      </c>
+      <c r="J76">
+        <v>1.0038910505800001</v>
+      </c>
+      <c r="K76">
+        <v>0.90856031128400006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>68</v>
       </c>
@@ -2077,8 +3073,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>21.5</v>
+      </c>
+      <c r="H77">
+        <v>13.8932806324</v>
+      </c>
+      <c r="I77">
+        <v>0.180273213662</v>
+      </c>
+      <c r="J77">
+        <v>0.94163424124499995</v>
+      </c>
+      <c r="K77">
+        <v>0.88974854932299996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>69</v>
       </c>
@@ -2101,8 +3112,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <v>5.5335968379400002</v>
+      </c>
+      <c r="I78">
+        <v>7.0734641325600006E-2</v>
+      </c>
+      <c r="J78">
+        <v>0.92996108949400003</v>
+      </c>
+      <c r="K78">
+        <v>0.87961165048500001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>70</v>
       </c>
@@ -2125,8 +3151,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>2.2252964426899999</v>
+      </c>
+      <c r="I79">
+        <v>2.7384643084000002E-2</v>
+      </c>
+      <c r="J79">
+        <v>0.78599221789899998</v>
+      </c>
+      <c r="K79">
+        <v>0.78947368421099995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>71</v>
       </c>
@@ -2147,8 +3188,23 @@
       <c r="F80">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>39</v>
+      </c>
+      <c r="H80">
+        <v>23.205533596799999</v>
+      </c>
+      <c r="I80">
+        <v>0.34459911211499999</v>
+      </c>
+      <c r="J80">
+        <v>0.92996108949400003</v>
+      </c>
+      <c r="K80">
+        <v>0.87524366471699999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>72</v>
       </c>
@@ -2170,8 +3226,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81">
+        <v>12.758893280600001</v>
+      </c>
+      <c r="I81">
+        <v>0.17343607286500001</v>
+      </c>
+      <c r="J81">
+        <v>0.93385214007799999</v>
+      </c>
+      <c r="K81">
+        <v>0.87719298245599997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>73</v>
       </c>
@@ -2193,8 +3264,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>7.5</v>
+      </c>
+      <c r="H82">
+        <v>4.3992094861700002</v>
+      </c>
+      <c r="I82">
+        <v>5.9324373373999997E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.87548638132300005</v>
+      </c>
+      <c r="K82">
+        <v>0.85714285714299998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>74</v>
       </c>
@@ -2216,8 +3302,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>2.5</v>
+      </c>
+      <c r="H83">
+        <v>1.1205533596799999</v>
+      </c>
+      <c r="I83">
+        <v>1.8247408747999998E-2</v>
+      </c>
+      <c r="J83">
+        <v>0.77821011673200002</v>
+      </c>
+      <c r="K83">
+        <v>0.79880478087600004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>75</v>
       </c>
@@ -2239,8 +3340,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0.15612648221299999</v>
+      </c>
+      <c r="I84">
+        <v>4.5550872060000002E-3</v>
+      </c>
+      <c r="J84">
+        <v>0.26070038910499999</v>
+      </c>
+      <c r="K84">
+        <v>0.407239819005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>76</v>
       </c>
@@ -2262,8 +3378,23 @@
       <c r="F85">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>62.5</v>
+      </c>
+      <c r="H85">
+        <v>32.2924901186</v>
+      </c>
+      <c r="I85">
+        <v>0.56594929040200004</v>
+      </c>
+      <c r="J85">
+        <v>1.0194552529200001</v>
+      </c>
+      <c r="K85">
+        <v>0.99415204678400004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>77</v>
       </c>
@@ -2286,8 +3417,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>61.5</v>
+      </c>
+      <c r="H86">
+        <v>32.035573122499997</v>
+      </c>
+      <c r="I86">
+        <v>0.55453000247600004</v>
+      </c>
+      <c r="J86">
+        <v>0.98832684824899997</v>
+      </c>
+      <c r="K86">
+        <v>0.98635477582800002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>78</v>
       </c>
@@ -2310,8 +3456,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>58.5</v>
+      </c>
+      <c r="H87">
+        <v>31.110671936799999</v>
+      </c>
+      <c r="I87">
+        <v>0.52714535939200002</v>
+      </c>
+      <c r="J87">
+        <v>0.99610894941600003</v>
+      </c>
+      <c r="K87">
+        <v>0.97660818713499997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>79</v>
       </c>
@@ -2334,8 +3495,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>51</v>
+      </c>
+      <c r="H88">
+        <v>28.735177865600001</v>
+      </c>
+      <c r="I88">
+        <v>0.46097482524700001</v>
+      </c>
+      <c r="J88">
+        <v>1.03112840467</v>
+      </c>
+      <c r="K88">
+        <v>0.96296296296299999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>80</v>
       </c>
@@ -2358,8 +3534,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>37</v>
+      </c>
+      <c r="H89">
+        <v>22.383399209499999</v>
+      </c>
+      <c r="I89">
+        <v>0.33088875062400003</v>
+      </c>
+      <c r="J89">
+        <v>1.0700389105100001</v>
+      </c>
+      <c r="K89">
+        <v>0.96881091617899995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>81</v>
       </c>
@@ -2382,8 +3573,23 @@
       <c r="F90">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>62</v>
+      </c>
+      <c r="H90">
+        <v>32.948616600800001</v>
+      </c>
+      <c r="I90">
+        <v>0.55682107604099995</v>
+      </c>
+      <c r="J90">
+        <v>0.984435797665</v>
+      </c>
+      <c r="K90">
+        <v>0.97678916827899998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>82</v>
       </c>
@@ -2407,8 +3613,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>59</v>
+      </c>
+      <c r="H91">
+        <v>32.122529644300002</v>
+      </c>
+      <c r="I91">
+        <v>0.52716339934099998</v>
+      </c>
+      <c r="J91">
+        <v>0.98832684824899997</v>
+      </c>
+      <c r="K91">
+        <v>0.96531791907499997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>83</v>
       </c>
@@ -2432,8 +3653,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>52.5</v>
+      </c>
+      <c r="H92">
+        <v>29.723320158100002</v>
+      </c>
+      <c r="I92">
+        <v>0.46783000599300001</v>
+      </c>
+      <c r="J92">
+        <v>1.0544747081700001</v>
+      </c>
+      <c r="K92">
+        <v>0.97098646034799996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>84</v>
       </c>
@@ -2457,8 +3693,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>38</v>
+      </c>
+      <c r="H93">
+        <v>23.335968379400001</v>
+      </c>
+      <c r="I93">
+        <v>0.33319786413800001</v>
+      </c>
+      <c r="J93">
+        <v>1.09338521401</v>
+      </c>
+      <c r="K93">
+        <v>0.96905222437100003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>85</v>
       </c>
@@ -2482,8 +3733,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>12.6324110672</v>
+      </c>
+      <c r="I94">
+        <v>0.17572714643000001</v>
+      </c>
+      <c r="J94">
+        <v>1.09338521401</v>
+      </c>
+      <c r="K94">
+        <v>0.93786407767000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>86</v>
       </c>
@@ -2505,8 +3771,23 @@
       <c r="F95">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>58</v>
+      </c>
+      <c r="H95">
+        <v>31.130434782599998</v>
+      </c>
+      <c r="I95">
+        <v>0.52487232577599996</v>
+      </c>
+      <c r="J95">
+        <v>0.98832684824899997</v>
+      </c>
+      <c r="K95">
+        <v>0.96491228070199997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>87</v>
       </c>
@@ -2529,8 +3810,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>51.5</v>
+      </c>
+      <c r="H96">
+        <v>28.6600790514</v>
+      </c>
+      <c r="I96">
+        <v>0.46095678529799999</v>
+      </c>
+      <c r="J96">
+        <v>1.0583657587499999</v>
+      </c>
+      <c r="K96">
+        <v>0.96491228070199997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>88</v>
       </c>
@@ -2553,8 +3849,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>37</v>
+      </c>
+      <c r="H97">
+        <v>22.482213438700001</v>
+      </c>
+      <c r="I97">
+        <v>0.32861571700800002</v>
+      </c>
+      <c r="J97">
+        <v>1.0817120622600001</v>
+      </c>
+      <c r="K97">
+        <v>0.95711500974700003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>89</v>
       </c>
@@ -2577,8 +3888,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>19.5</v>
+      </c>
+      <c r="H98">
+        <v>12.6600790514</v>
+      </c>
+      <c r="I98">
+        <v>0.17114499929999999</v>
+      </c>
+      <c r="J98">
+        <v>1.1439688716</v>
+      </c>
+      <c r="K98">
+        <v>0.96296296296299999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>90</v>
       </c>
@@ -2601,8 +3927,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>8</v>
+      </c>
+      <c r="H99">
+        <v>4.7667984189699997</v>
+      </c>
+      <c r="I99">
+        <v>6.6179554119599998E-2</v>
+      </c>
+      <c r="J99">
+        <v>1.07782101167</v>
+      </c>
+      <c r="K99">
+        <v>0.94324853229000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>91</v>
       </c>
@@ -2625,8 +3966,23 @@
       <c r="F100">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>52.5</v>
+      </c>
+      <c r="H100">
+        <v>29.7391304348</v>
+      </c>
+      <c r="I100">
+        <v>0.46553893242799999</v>
+      </c>
+      <c r="J100">
+        <v>1.046692607</v>
+      </c>
+      <c r="K100">
+        <v>0.95357833655699997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>92</v>
       </c>
@@ -2650,8 +4006,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>38.5</v>
+      </c>
+      <c r="H101">
+        <v>23.264822134399999</v>
+      </c>
+      <c r="I101">
+        <v>0.33774393136899999</v>
+      </c>
+      <c r="J101">
+        <v>1.0739299610899999</v>
+      </c>
+      <c r="K101">
+        <v>0.94163424124499995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>93</v>
       </c>
@@ -2675,8 +4046,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>19.5</v>
+      </c>
+      <c r="H102">
+        <v>12.533596837899999</v>
+      </c>
+      <c r="I102">
+        <v>0.16887196568499999</v>
+      </c>
+      <c r="J102">
+        <v>1.1011673151800001</v>
+      </c>
+      <c r="K102">
+        <v>0.94152046783599996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>94</v>
       </c>
@@ -2700,8 +4086,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>8</v>
+      </c>
+      <c r="H103">
+        <v>4.7766798419000001</v>
+      </c>
+      <c r="I103">
+        <v>6.0469910156500002E-2</v>
+      </c>
+      <c r="J103">
+        <v>1.1011673151800001</v>
+      </c>
+      <c r="K103">
+        <v>0.93933463796500005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>95</v>
       </c>
@@ -2725,8 +4126,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>3.5</v>
+      </c>
+      <c r="H104">
+        <v>1.7391304347800001</v>
+      </c>
+      <c r="I104">
+        <v>2.3957052711200001E-2</v>
+      </c>
+      <c r="J104">
+        <v>1.0389105058400001</v>
+      </c>
+      <c r="K104">
+        <v>0.91960784313699995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>96</v>
       </c>
@@ -2748,8 +4164,23 @@
       <c r="F105">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>37</v>
+      </c>
+      <c r="H105">
+        <v>22.335968379400001</v>
+      </c>
+      <c r="I105">
+        <v>0.33088875062400003</v>
+      </c>
+      <c r="J105">
+        <v>1.1050583657599999</v>
+      </c>
+      <c r="K105">
+        <v>0.96686159844099995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>97</v>
       </c>
@@ -2772,8 +4203,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>19.5</v>
+      </c>
+      <c r="H106">
+        <v>12.517786561299999</v>
+      </c>
+      <c r="I106">
+        <v>0.16887196568499999</v>
+      </c>
+      <c r="J106">
+        <v>1.11284046693</v>
+      </c>
+      <c r="K106">
+        <v>0.93957115009699999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>98</v>
       </c>
@@ -2796,8 +4242,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
+        <v>4.8102766798400003</v>
+      </c>
+      <c r="I107">
+        <v>6.2751963746800005E-2</v>
+      </c>
+      <c r="J107">
+        <v>1.0817120622600001</v>
+      </c>
+      <c r="K107">
+        <v>0.93359375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>99</v>
       </c>
@@ -2820,8 +4281,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>1.71343873518</v>
+      </c>
+      <c r="I108">
+        <v>2.0538482313000001E-2</v>
+      </c>
+      <c r="J108">
+        <v>1.0428015564199999</v>
+      </c>
+      <c r="K108">
+        <v>0.90316205533600002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>100</v>
       </c>
@@ -2844,8 +4320,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>1.5</v>
+      </c>
+      <c r="H109">
+        <v>0.650197628458</v>
+      </c>
+      <c r="I109">
+        <v>4.5550872060000002E-3</v>
+      </c>
+      <c r="J109">
+        <v>0.76653696498099999</v>
+      </c>
+      <c r="K109">
+        <v>0.78048780487799996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>101</v>
       </c>
@@ -2866,8 +4357,23 @@
       <c r="F110">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>62</v>
+      </c>
+      <c r="H110">
+        <v>32.2134387352</v>
+      </c>
+      <c r="I110">
+        <v>0.55909410965700002</v>
+      </c>
+      <c r="J110">
+        <v>1.0116731517499999</v>
+      </c>
+      <c r="K110">
+        <v>0.99415204678400004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>102</v>
       </c>
@@ -2889,8 +4395,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>61.5</v>
+      </c>
+      <c r="H111">
+        <v>31.909090909100001</v>
+      </c>
+      <c r="I111">
+        <v>0.554548042425</v>
+      </c>
+      <c r="J111">
+        <v>0.99610894941600003</v>
+      </c>
+      <c r="K111">
+        <v>0.99220272904499995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>103</v>
       </c>
@@ -2912,8 +4433,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>59</v>
+      </c>
+      <c r="H112">
+        <v>31.094861660100001</v>
+      </c>
+      <c r="I112">
+        <v>0.531709466573</v>
+      </c>
+      <c r="J112">
+        <v>1.0077821011700001</v>
+      </c>
+      <c r="K112">
+        <v>0.97660818713499997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>104</v>
       </c>
@@ -2935,8 +4471,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>51</v>
+      </c>
+      <c r="H113">
+        <v>28.529644268799998</v>
+      </c>
+      <c r="I113">
+        <v>0.46097482524700001</v>
+      </c>
+      <c r="J113">
+        <v>1.0817120622600001</v>
+      </c>
+      <c r="K113">
+        <v>0.98635477582800002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>105</v>
       </c>
@@ -2958,8 +4509,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>36.5</v>
+      </c>
+      <c r="H114">
+        <v>22.0750988142</v>
+      </c>
+      <c r="I114">
+        <v>0.32634268339200001</v>
+      </c>
+      <c r="J114">
+        <v>1.1984435797699999</v>
+      </c>
+      <c r="K114">
+        <v>0.97855750487299997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>106</v>
       </c>
@@ -2981,8 +4547,23 @@
       <c r="F115">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>62.5</v>
+      </c>
+      <c r="H115">
+        <v>32.936758893300002</v>
+      </c>
+      <c r="I115">
+        <v>0.55911214960599998</v>
+      </c>
+      <c r="J115">
+        <v>0.98054474708200001</v>
+      </c>
+      <c r="K115">
+        <v>0.98259187620900001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>107</v>
       </c>
@@ -3005,8 +4586,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>59.5</v>
+      </c>
+      <c r="H116">
+        <v>32.102766798399998</v>
+      </c>
+      <c r="I116">
+        <v>0.52941839300799998</v>
+      </c>
+      <c r="J116">
+        <v>1.0272373540899999</v>
+      </c>
+      <c r="K116">
+        <v>0.99226305609300003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>108</v>
       </c>
@@ -3029,8 +4625,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>52</v>
+      </c>
+      <c r="H117">
+        <v>29.628458498000001</v>
+      </c>
+      <c r="I117">
+        <v>0.46553893242799999</v>
+      </c>
+      <c r="J117">
+        <v>1.10894941634</v>
+      </c>
+      <c r="K117">
+        <v>0.98065764023199997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>109</v>
       </c>
@@ -3053,8 +4664,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>37.5</v>
+      </c>
+      <c r="H118">
+        <v>23.150197628499999</v>
+      </c>
+      <c r="I118">
+        <v>0.32861571700800002</v>
+      </c>
+      <c r="J118">
+        <v>1.21789883268</v>
+      </c>
+      <c r="K118">
+        <v>0.99032882011599999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>110</v>
       </c>
@@ -3077,8 +4703,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>19</v>
+      </c>
+      <c r="H119">
+        <v>12.2529644269</v>
+      </c>
+      <c r="I119">
+        <v>0.16659893206900001</v>
+      </c>
+      <c r="J119">
+        <v>1.2568093385200001</v>
+      </c>
+      <c r="K119">
+        <v>0.98245614035100004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>111</v>
       </c>
@@ -3099,8 +4740,23 @@
       <c r="F120">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>58</v>
+      </c>
+      <c r="H120">
+        <v>31.0711462451</v>
+      </c>
+      <c r="I120">
+        <v>0.52487232577599996</v>
+      </c>
+      <c r="J120">
+        <v>1.0038910505800001</v>
+      </c>
+      <c r="K120">
+        <v>0.98440545809000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>112</v>
       </c>
@@ -3122,8 +4778,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>51</v>
+      </c>
+      <c r="H121">
+        <v>28.5454545455</v>
+      </c>
+      <c r="I121">
+        <v>0.458701791631</v>
+      </c>
+      <c r="J121">
+        <v>1.1050583657599999</v>
+      </c>
+      <c r="K121">
+        <v>0.99025341130599998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>113</v>
       </c>
@@ -3145,8 +4816,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>36.5</v>
+      </c>
+      <c r="H122">
+        <v>22.162055336000002</v>
+      </c>
+      <c r="I122">
+        <v>0.32405160982699999</v>
+      </c>
+      <c r="J122">
+        <v>1.2101167315200001</v>
+      </c>
+      <c r="K122">
+        <v>0.97855750487299997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>114</v>
       </c>
@@ -3168,8 +4854,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>19</v>
+      </c>
+      <c r="H123">
+        <v>12.256916995999999</v>
+      </c>
+      <c r="I123">
+        <v>0.16201678493900001</v>
+      </c>
+      <c r="J123">
+        <v>1.2723735408600001</v>
+      </c>
+      <c r="K123">
+        <v>0.98635477582800002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>115</v>
       </c>
@@ -3191,8 +4892,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>7.5</v>
+      </c>
+      <c r="H124">
+        <v>4.6442687747000004</v>
+      </c>
+      <c r="I124">
+        <v>5.9333393348600001E-2</v>
+      </c>
+      <c r="J124">
+        <v>1.25291828794</v>
+      </c>
+      <c r="K124">
+        <v>0.97855750487299997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>116</v>
       </c>
@@ -3214,8 +4930,23 @@
       <c r="F125">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>52</v>
+      </c>
+      <c r="H125">
+        <v>29.6324110672</v>
+      </c>
+      <c r="I125">
+        <v>0.46326589881199998</v>
+      </c>
+      <c r="J125">
+        <v>1.09727626459</v>
+      </c>
+      <c r="K125">
+        <v>0.98259187620900001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>117</v>
       </c>
@@ -3238,8 +4969,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>37.5</v>
+      </c>
+      <c r="H126">
+        <v>23.142292490100001</v>
+      </c>
+      <c r="I126">
+        <v>0.33088875062400003</v>
+      </c>
+      <c r="J126">
+        <v>1.2101167315200001</v>
+      </c>
+      <c r="K126">
+        <v>0.98065764023199997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>118</v>
       </c>
@@ -3262,8 +5008,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>19</v>
+      </c>
+      <c r="H127">
+        <v>12.264822134399999</v>
+      </c>
+      <c r="I127">
+        <v>0.16887196568499999</v>
+      </c>
+      <c r="J127">
+        <v>1.25291828794</v>
+      </c>
+      <c r="K127">
+        <v>0.98635477582800002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>119</v>
       </c>
@@ -3286,8 +5047,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>7.5</v>
+      </c>
+      <c r="H128">
+        <v>4.6403162055299996</v>
+      </c>
+      <c r="I128">
+        <v>5.9342413323300001E-2</v>
+      </c>
+      <c r="J128">
+        <v>1.2256809338500001</v>
+      </c>
+      <c r="K128">
+        <v>0.97847358121299999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>120</v>
       </c>
@@ -3310,8 +5086,23 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>1.5256916996000001</v>
+      </c>
+      <c r="I129">
+        <v>2.1684019095499999E-2</v>
+      </c>
+      <c r="J129">
+        <v>1.11284046693</v>
+      </c>
+      <c r="K129">
+        <v>0.91929133858300005</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>121</v>
       </c>
@@ -3332,8 +5123,23 @@
       <c r="F130">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>36.5</v>
+      </c>
+      <c r="H130">
+        <v>21.9288537549</v>
+      </c>
+      <c r="I130">
+        <v>0.326324643443</v>
+      </c>
+      <c r="J130">
+        <v>1.1945525291800001</v>
+      </c>
+      <c r="K130">
+        <v>0.988304093567</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>122</v>
       </c>
@@ -3355,8 +5161,23 @@
         <f>10^-2.5</f>
         <v>3.1622776601683764E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>19</v>
+      </c>
+      <c r="H131">
+        <v>12.3003952569</v>
+      </c>
+      <c r="I131">
+        <v>0.16201678493900001</v>
+      </c>
+      <c r="J131">
+        <v>1.24902723735</v>
+      </c>
+      <c r="K131">
+        <v>0.98245614035100004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>123</v>
       </c>
@@ -3378,8 +5199,23 @@
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>7.5</v>
+      </c>
+      <c r="H132">
+        <v>4.5632411067199996</v>
+      </c>
+      <c r="I132">
+        <v>5.8187856566100003E-2</v>
+      </c>
+      <c r="J132">
+        <v>1.2101167315200001</v>
+      </c>
+      <c r="K132">
+        <v>0.95694716242699995</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>124</v>
       </c>
@@ -3401,8 +5237,23 @@
         <f>10^-1.5</f>
         <v>3.1622776601683784E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>1.54347826087</v>
+      </c>
+      <c r="I133">
+        <v>2.0538482313000001E-2</v>
+      </c>
+      <c r="J133">
+        <v>1.14007782101</v>
+      </c>
+      <c r="K133">
+        <v>0.92460317460300001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>125</v>
       </c>
@@ -3423,6 +5274,21 @@
       <c r="F134">
         <f>0.1</f>
         <v>0.1</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>0.49407114624499998</v>
+      </c>
+      <c r="I134">
+        <v>1.3683301567300001E-2</v>
+      </c>
+      <c r="J134">
+        <v>0.68482490272399998</v>
+      </c>
+      <c r="K134">
+        <v>0.74743326488700002</v>
       </c>
     </row>
   </sheetData>

--- a/ModelRuns/WeatheringParamStudy/model_parameter_and_output_summary_wxing_5x5x5.xlsx
+++ b/ModelRuns/WeatheringParamStudy/model_parameter_and_output_summary_wxing_5x5x5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="2200" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Data on Grain Hill runs with 5x5x5 parameter study of disturbance rate, weathering rate, and uplift interval</t>
   </si>
@@ -79,6 +79,27 @@
   <si>
     <t>Fractional soil cover</t>
   </si>
+  <si>
+    <t>Total number of surface faces</t>
+  </si>
+  <si>
+    <t>Number of soil-air faces</t>
+  </si>
+  <si>
+    <t>Number of rock-air faces</t>
+  </si>
+  <si>
+    <t>Uplift</t>
+  </si>
+  <si>
+    <t>rate (1/tau)</t>
+  </si>
+  <si>
+    <t>pred wx rt</t>
+  </si>
+  <si>
+    <t>w (Nra/Nc)</t>
+  </si>
 </sst>
 </file>
 
@@ -127,6 +148,1621 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$10:$P$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.00316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.000316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>0.00994509803921568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0102588235294118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0101019607843137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0104470588235294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0101176470588235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00329372920212047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00317963918457714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00325404571775758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00313499526466888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00317467874903178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000988235294117647</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00101960784313725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00105098039215686</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.000964705882352941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000975686274509804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000320940179784932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00032242831044854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.000313003482912352</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000323916441112149</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000333837312202873</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000101490196078431</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.63137254901961E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.69411764705882E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.83529411764706E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000106509803921569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00768867509531135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0102681015788997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00972245366890984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00858155349347654</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0098712667352707</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00304313725490196</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00310588235294117</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00327843137254902</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00318431372549019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00343529411764705</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000882957527074465</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.000813511429439395</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.000977205802436346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00120042540197764</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00111609799770649</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000290196078431372</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000334117647058823</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000329411764705882</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.000338823529411765</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000341960784313725</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.9287839816519E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000103177059343533</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.73036655983741E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.67284931345622E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000103673102898069</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.00235294117647059</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.00705882352941176</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.00768627450980392</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.00862745098039216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.00148813066360865</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00153773501906227</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0025298221281347</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.00257942648358832</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.00337309617084627</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.000580392156862745</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.000831372549019608</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.000894117647058823</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.00105098039215686</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.000988235294117647</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.000302586568267092</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.000233140470632022</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.000282744826085643</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.000307547003812454</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.000535727038899113</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.000100392156862745</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.88235294117647E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.000114509803921569</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.00015843137254902</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.000410980392156863</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.00148813066360865</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.00347230488175351</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0059525226544346</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.00942482753618811</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.00793669687257946</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.00188235294117647</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0028235294117647</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.00235294117647059</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.00250980392156863</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.00501960784313725</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.000892878398165189</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.000892878398165189</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.00109129581997968</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.000942482753618811</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.00143852630815503</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.000376470588235294</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.000470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.000470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.000486274509803921</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.000643137254901961</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.43274042711568E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.000153773501906227</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.000168654808542314</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.000243061341722746</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.000535727038899114</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.00470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.00627450980392157</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0188235294117647</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0109803921568627</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0172549019607843</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.00446439199082594</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.00198417421814486</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.00496043554536216</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.00248021777268108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.00446439199082594</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.00125490196078431</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.000784313725490196</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.00172549019607843</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.00109803921568627</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.00172549019607843</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.000446439199082594</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.000496043554536216</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.000347230488175351</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.000545647909989838</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.00203377857359849</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.41176470588235E-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.000141176470588235</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.000345098039215686</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.000596078431372549</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.00192941176470588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1079279968"/>
+        <c:axId val="1079324016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1079279968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1079324016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1079324016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1079279968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,45 +2028,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="F105" workbookViewId="0">
+      <selection activeCell="S127" sqref="S127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -464,8 +2108,23 @@
       <c r="K9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -501,8 +2160,29 @@
       <c r="K10">
         <v>0.27542857142900001</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>875</v>
+      </c>
+      <c r="M10">
+        <v>241</v>
+      </c>
+      <c r="N10">
+        <v>634</v>
+      </c>
+      <c r="P10">
+        <f>1/E10</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q10">
+        <f>D10*(N10/255)</f>
+        <v>9.9450980392156874E-3</v>
+      </c>
+      <c r="R10">
+        <f>(Q10-P10)/P10</f>
+        <v>-5.4901960784312781E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -539,8 +2219,29 @@
       <c r="K11">
         <v>0.249138920781</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>871</v>
+      </c>
+      <c r="M11">
+        <v>217</v>
+      </c>
+      <c r="N11">
+        <v>654</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P74" si="2">1/E11</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q74" si="3">D11*(N11/255)</f>
+        <v>1.0258823529411766E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ref="R11:R74" si="4">(Q11-P11)/P11</f>
+        <v>2.588235294117662E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -577,8 +2278,29 @@
       <c r="K12">
         <v>0.23241954708000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>839</v>
+      </c>
+      <c r="M12">
+        <v>195</v>
+      </c>
+      <c r="N12">
+        <v>644</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>1.0101960784313725E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>1.0196078431372498E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -615,8 +2337,29 @@
       <c r="K13">
         <v>0.249154453213</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>887</v>
+      </c>
+      <c r="M13">
+        <v>221</v>
+      </c>
+      <c r="N13">
+        <v>666</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>1.0447058823529412E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>4.4705882352941151E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -653,8 +2396,29 @@
       <c r="K14">
         <v>0.24028268551199999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>849</v>
+      </c>
+      <c r="M14">
+        <v>204</v>
+      </c>
+      <c r="N14">
+        <v>645</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>1.011764705882353E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>1.1764705882352962E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -691,8 +2455,29 @@
       <c r="K15">
         <v>0.232369942197</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>865</v>
+      </c>
+      <c r="M15">
+        <v>201</v>
+      </c>
+      <c r="N15">
+        <v>664</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>3.2937292021204736E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>4.1568627450980396E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -730,8 +2515,29 @@
       <c r="K16">
         <v>0.272417707151</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>881</v>
+      </c>
+      <c r="M16">
+        <v>240</v>
+      </c>
+      <c r="N16">
+        <v>641</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>3.1796391845771437E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>5.4901960784312928E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -747,7 +2553,7 @@
         <v>1.2649110640673505E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E19" si="2">10^2.5</f>
+        <f t="shared" ref="E17:E19" si="5">10^2.5</f>
         <v>316.22776601683825</v>
       </c>
       <c r="F17">
@@ -769,8 +2575,29 @@
       <c r="K17">
         <v>0.25028571428599999</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>875</v>
+      </c>
+      <c r="M17">
+        <v>219</v>
+      </c>
+      <c r="N17">
+        <v>656</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>3.2540457177575761E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>2.9019607843137205E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -786,7 +2613,7 @@
         <v>1.2649110640673505E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F18">
@@ -808,8 +2635,29 @@
       <c r="K18">
         <v>0.25908558030500001</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>853</v>
+      </c>
+      <c r="M18">
+        <v>221</v>
+      </c>
+      <c r="N18">
+        <v>632</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>3.1349952646688843E-3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>-8.6274509803922275E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -825,7 +2673,7 @@
         <v>1.2649110640673505E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F19">
@@ -847,8 +2695,29 @@
       <c r="K19">
         <v>0.212792127921</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>813</v>
+      </c>
+      <c r="M19">
+        <v>173</v>
+      </c>
+      <c r="N19">
+        <v>640</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>3.1746787490317817E-3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>3.921568627450963E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -884,8 +2753,29 @@
       <c r="K20">
         <v>0.24731182795699999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>837</v>
+      </c>
+      <c r="M20">
+        <v>207</v>
+      </c>
+      <c r="N20">
+        <v>630</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>9.8823529411764719E-4</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>-1.1764705882352832E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -922,8 +2812,29 @@
       <c r="K21">
         <v>0.257142857143</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>875</v>
+      </c>
+      <c r="M21">
+        <v>225</v>
+      </c>
+      <c r="N21">
+        <v>650</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>1.019607843137255E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>1.9607843137254936E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
@@ -960,8 +2871,29 @@
       <c r="K22">
         <v>0.25802879291300002</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>903</v>
+      </c>
+      <c r="M22">
+        <v>233</v>
+      </c>
+      <c r="N22">
+        <v>670</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>1.0509803921568627E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>5.0980392156862703E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -998,8 +2930,29 @@
       <c r="K23">
         <v>0.219543147208</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>788</v>
+      </c>
+      <c r="M23">
+        <v>173</v>
+      </c>
+      <c r="N23">
+        <v>615</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>9.647058823529412E-4</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>-3.5294117647058823E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1036,8 +2989,29 @@
       <c r="K24">
         <v>0.180500658762</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>759</v>
+      </c>
+      <c r="M24">
+        <v>137</v>
+      </c>
+      <c r="N24">
+        <v>622</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>9.7568627450980402E-4</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>-2.4313725490196003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
@@ -1074,8 +3048,29 @@
       <c r="K25">
         <v>0.24854819976799999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>861</v>
+      </c>
+      <c r="M25">
+        <v>214</v>
+      </c>
+      <c r="N25">
+        <v>647</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>3.2094017978493187E-4</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>1.4901960784313677E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17</v>
       </c>
@@ -1113,8 +3108,29 @@
       <c r="K26">
         <v>0.26052332195700001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>879</v>
+      </c>
+      <c r="M26">
+        <v>229</v>
+      </c>
+      <c r="N26">
+        <v>650</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>3.224283104485405E-4</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>1.9607843137254801E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>18</v>
       </c>
@@ -1152,8 +3168,29 @@
       <c r="K27">
         <v>0.222906403941</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>812</v>
+      </c>
+      <c r="M27">
+        <v>181</v>
+      </c>
+      <c r="N27">
+        <v>631</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>3.1300348291235242E-4</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>-1.0196078431372551E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>19</v>
       </c>
@@ -1191,8 +3228,29 @@
       <c r="K28">
         <v>0.16815286624199999</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>785</v>
+      </c>
+      <c r="M28">
+        <v>132</v>
+      </c>
+      <c r="N28">
+        <v>653</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>3.2391644111214913E-4</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>2.4313725490195927E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20</v>
       </c>
@@ -1230,8 +3288,29 @@
       <c r="K29">
         <v>0.113306982872</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>759</v>
+      </c>
+      <c r="M29">
+        <v>86</v>
+      </c>
+      <c r="N29">
+        <v>673</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>3.3383731220287349E-4</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>5.5686274509803881E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1267,8 +3346,29 @@
       <c r="K30">
         <v>0.26057142857100002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>875</v>
+      </c>
+      <c r="M30">
+        <v>228</v>
+      </c>
+      <c r="N30">
+        <v>647</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>1.0149019607843137E-4</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>1.4901960784313651E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>22</v>
       </c>
@@ -1305,8 +3405,29 @@
       <c r="K31">
         <v>0.21583652618099999</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>783</v>
+      </c>
+      <c r="M31">
+        <v>169</v>
+      </c>
+      <c r="N31">
+        <v>614</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>9.6313725490196087E-5</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>-3.6862745098039176E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23</v>
       </c>
@@ -1343,8 +3464,29 @@
       <c r="K32">
         <v>0.20971867007700001</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>782</v>
+      </c>
+      <c r="M32">
+        <v>164</v>
+      </c>
+      <c r="N32">
+        <v>618</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>9.6941176470588243E-5</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>-3.0588235294117617E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>24</v>
       </c>
@@ -1381,8 +3523,29 @@
       <c r="K33">
         <v>0.14925373134299999</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>737</v>
+      </c>
+      <c r="M33">
+        <v>110</v>
+      </c>
+      <c r="N33">
+        <v>627</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>9.8352941176470604E-5</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>-1.6470588235294008E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
@@ -1419,8 +3582,29 @@
       <c r="K34">
         <v>7.9945799457999997E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>738</v>
+      </c>
+      <c r="M34">
+        <v>59</v>
+      </c>
+      <c r="N34">
+        <v>679</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>1.0650980392156863E-4</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>6.5098039215686257E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>26</v>
       </c>
@@ -1457,8 +3641,29 @@
       <c r="K35">
         <v>0.70699432892199998</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>529</v>
+      </c>
+      <c r="M35">
+        <v>374</v>
+      </c>
+      <c r="N35">
+        <v>155</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>7.6886750953113541E-3</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>-0.23113249046886461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
@@ -1496,8 +3701,29 @@
       <c r="K36">
         <v>0.610169491525</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>531</v>
+      </c>
+      <c r="M36">
+        <v>324</v>
+      </c>
+      <c r="N36">
+        <v>207</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>1.026810157889968E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>2.6810157889967969E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>28</v>
       </c>
@@ -1506,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C59" si="3">0.4*10^0.5</f>
+        <f t="shared" ref="C37:C59" si="6">0.4*10^0.5</f>
         <v>1.264911064067352</v>
       </c>
       <c r="D37">
@@ -1535,8 +3761,29 @@
       <c r="K37">
         <v>0.64168190128000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>547</v>
+      </c>
+      <c r="M37">
+        <v>351</v>
+      </c>
+      <c r="N37">
+        <v>196</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>9.7224536689098431E-3</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="4"/>
+        <v>-2.7754633109015707E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>29</v>
       </c>
@@ -1545,7 +3792,7 @@
         <v>3.1622776601683786</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D38">
@@ -1574,8 +3821,29 @@
       <c r="K38">
         <v>0.68139963167600004</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>543</v>
+      </c>
+      <c r="M38">
+        <v>370</v>
+      </c>
+      <c r="N38">
+        <v>173</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>8.5815534934765448E-3</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="4"/>
+        <v>-0.14184465065234553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>30</v>
       </c>
@@ -1584,7 +3852,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D39">
@@ -1613,8 +3881,29 @@
       <c r="K39">
         <v>0.64144144144100002</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>555</v>
+      </c>
+      <c r="M39">
+        <v>356</v>
+      </c>
+      <c r="N39">
+        <v>199</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>9.8712667352707072E-3</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>-1.2873326472929297E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>31</v>
       </c>
@@ -1623,7 +3912,7 @@
         <v>0.31622776601683827</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D40">
@@ -1652,8 +3941,29 @@
       <c r="K40">
         <v>0.64007421150300003</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>539</v>
+      </c>
+      <c r="M40">
+        <v>345</v>
+      </c>
+      <c r="N40">
+        <v>194</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>3.0431372549019581E-3</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="4"/>
+        <v>-3.7675504199740209E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>32</v>
       </c>
@@ -1662,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D41">
@@ -1692,8 +4002,29 @@
       <c r="K41">
         <v>0.648312611012</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>563</v>
+      </c>
+      <c r="M41">
+        <v>365</v>
+      </c>
+      <c r="N41">
+        <v>198</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>3.105882352941174E-3</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>-1.7833762018291444E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>33</v>
       </c>
@@ -1702,7 +4033,7 @@
         <v>3.1622776601683826</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D42">
@@ -1710,7 +4041,7 @@
         <v>3.9999999999999966E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E44" si="4">10^2.5</f>
+        <f t="shared" ref="E42:E44" si="7">10^2.5</f>
         <v>316.22776601683825</v>
       </c>
       <c r="F42">
@@ -1732,8 +4063,29 @@
       <c r="K42">
         <v>0.61791590493600002</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>547</v>
+      </c>
+      <c r="M42">
+        <v>338</v>
+      </c>
+      <c r="N42">
+        <v>209</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>3.2784313725490169E-3</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="4"/>
+        <v>3.6731028980692311E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>34</v>
       </c>
@@ -1742,7 +4094,7 @@
         <v>10.000000000000007</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D43">
@@ -1750,7 +4102,7 @@
         <v>3.9999999999999966E-3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F43">
@@ -1772,8 +4124,29 @@
       <c r="K43">
         <v>0.63023679417099998</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>549</v>
+      </c>
+      <c r="M43">
+        <v>346</v>
+      </c>
+      <c r="N43">
+        <v>203</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="3"/>
+        <v>3.1843137254901933E-3</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="4"/>
+        <v>6.9684157085193044E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35</v>
       </c>
@@ -1782,7 +4155,7 @@
         <v>31.622776601683825</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D44">
@@ -1790,7 +4163,7 @@
         <v>3.9999999999999966E-3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F44">
@@ -1812,8 +4185,29 @@
       <c r="K44">
         <v>0.593692022263</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>539</v>
+      </c>
+      <c r="M44">
+        <v>320</v>
+      </c>
+      <c r="N44">
+        <v>219</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="3"/>
+        <v>3.4352941176470555E-3</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="4"/>
+        <v>8.6335384434313808E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>36</v>
       </c>
@@ -1822,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D45">
@@ -1850,8 +4244,29 @@
       <c r="K45">
         <v>0.66975881261600001</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>539</v>
+      </c>
+      <c r="M45">
+        <v>361</v>
+      </c>
+      <c r="N45">
+        <v>178</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="3"/>
+        <v>8.8295752707446521E-4</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="4"/>
+        <v>-0.11704247292553481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37</v>
       </c>
@@ -1860,7 +4275,7 @@
         <v>3.1622776601683764</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D46">
@@ -1889,8 +4304,29 @@
       <c r="K46">
         <v>0.69685767097999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>541</v>
+      </c>
+      <c r="M46">
+        <v>377</v>
+      </c>
+      <c r="N46">
+        <v>164</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="3"/>
+        <v>8.1351142943939501E-4</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="4"/>
+        <v>-0.186488570560605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -1899,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D47">
@@ -1928,8 +4364,29 @@
       <c r="K47">
         <v>0.64376130198899995</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>553</v>
+      </c>
+      <c r="M47">
+        <v>356</v>
+      </c>
+      <c r="N47">
+        <v>197</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="3"/>
+        <v>9.7720580243634641E-4</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="4"/>
+        <v>-2.2794197563653612E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>39</v>
       </c>
@@ -1938,7 +4395,7 @@
         <v>31.622776601683785</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D48">
@@ -1967,8 +4424,29 @@
       <c r="K48">
         <v>0.54934823091200002</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>537</v>
+      </c>
+      <c r="M48">
+        <v>295</v>
+      </c>
+      <c r="N48">
+        <v>242</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="3"/>
+        <v>1.2004254019776439E-3</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="4"/>
+        <v>0.20042540197764383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40</v>
       </c>
@@ -1977,7 +4455,7 @@
         <v>100</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D49">
@@ -2006,8 +4484,29 @@
       <c r="K49">
         <v>0.56896551724099997</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>522</v>
+      </c>
+      <c r="M49">
+        <v>297</v>
+      </c>
+      <c r="N49">
+        <v>225</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="3"/>
+        <v>1.116097997706487E-3</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="4"/>
+        <v>0.11609799770648699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>41</v>
       </c>
@@ -2016,7 +4515,7 @@
         <v>3.1622776601683804</v>
       </c>
       <c r="C50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D50">
@@ -2045,8 +4544,29 @@
       <c r="K50">
         <v>0.67256637168099997</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>565</v>
+      </c>
+      <c r="M50">
+        <v>380</v>
+      </c>
+      <c r="N50">
+        <v>185</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="3"/>
+        <v>2.9019607843137251E-4</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="4"/>
+        <v>-8.231942410799957E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>42</v>
       </c>
@@ -2055,7 +4575,7 @@
         <v>9.9999999999999947</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D51">
@@ -2085,8 +4605,29 @@
       <c r="K51">
         <v>0.61552346570399996</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>554</v>
+      </c>
+      <c r="M51">
+        <v>341</v>
+      </c>
+      <c r="N51">
+        <v>213</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="3"/>
+        <v>3.341176470588235E-4</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="4"/>
+        <v>5.6572771162141107E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>43</v>
       </c>
@@ -2095,7 +4636,7 @@
         <v>31.622776601683803</v>
       </c>
       <c r="C52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D52">
@@ -2125,8 +4666,29 @@
       <c r="K52">
         <v>0.61887477313999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>551</v>
+      </c>
+      <c r="M52">
+        <v>341</v>
+      </c>
+      <c r="N52">
+        <v>210</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="3"/>
+        <v>3.2941176470588232E-4</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="4"/>
+        <v>4.1691464526054614E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>44</v>
       </c>
@@ -2135,7 +4697,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D53">
@@ -2165,8 +4727,29 @@
       <c r="K53">
         <v>0.58857142857099998</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>525</v>
+      </c>
+      <c r="M53">
+        <v>309</v>
+      </c>
+      <c r="N53">
+        <v>216</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="3"/>
+        <v>3.3882352941176468E-4</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="4"/>
+        <v>7.14540777982276E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>45</v>
       </c>
@@ -2175,7 +4758,7 @@
         <v>316.22776601683807</v>
       </c>
       <c r="C54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D54">
@@ -2205,8 +4788,29 @@
       <c r="K54">
         <v>0.58317399617599996</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>523</v>
+      </c>
+      <c r="M54">
+        <v>305</v>
+      </c>
+      <c r="N54">
+        <v>218</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="3"/>
+        <v>3.4196078431372544E-4</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="4"/>
+        <v>8.1374948888951873E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>46</v>
       </c>
@@ -2215,7 +4819,7 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D55">
@@ -2243,8 +4847,29 @@
       <c r="K55">
         <v>0.66972477064199998</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>545</v>
+      </c>
+      <c r="M55">
+        <v>365</v>
+      </c>
+      <c r="N55">
+        <v>180</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="3"/>
+        <v>8.9287839816518981E-5</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="4"/>
+        <v>-0.10712160183481023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>47</v>
       </c>
@@ -2253,7 +4878,7 @@
         <v>31.622776601683764</v>
       </c>
       <c r="C56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D56">
@@ -2282,8 +4907,29 @@
       <c r="K56">
         <v>0.61121495327099995</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>535</v>
+      </c>
+      <c r="M56">
+        <v>327</v>
+      </c>
+      <c r="N56">
+        <v>208</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="3"/>
+        <v>1.0317705934353304E-4</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="4"/>
+        <v>3.1770593435330306E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>48</v>
       </c>
@@ -2292,7 +4938,7 @@
         <v>100</v>
       </c>
       <c r="C57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D57">
@@ -2321,8 +4967,29 @@
       <c r="K57">
         <v>0.66023166023199997</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>518</v>
+      </c>
+      <c r="M57">
+        <v>342</v>
+      </c>
+      <c r="N57">
+        <v>176</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="3"/>
+        <v>8.7303665598374106E-5</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="4"/>
+        <v>-0.12696334401625897</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>49</v>
       </c>
@@ -2331,7 +4998,7 @@
         <v>316.22776601683785</v>
       </c>
       <c r="C58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D58">
@@ -2360,8 +5027,29 @@
       <c r="K58">
         <v>0.619883040936</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>513</v>
+      </c>
+      <c r="M58">
+        <v>318</v>
+      </c>
+      <c r="N58">
+        <v>195</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="3"/>
+        <v>9.672849313456221E-5</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="4"/>
+        <v>-3.2715068654377948E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50</v>
       </c>
@@ -2370,7 +5058,7 @@
         <v>1000</v>
       </c>
       <c r="C59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.264911064067352</v>
       </c>
       <c r="D59">
@@ -2399,8 +5087,29 @@
       <c r="K59">
         <v>0.578629032258</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>496</v>
+      </c>
+      <c r="M59">
+        <v>287</v>
+      </c>
+      <c r="N59">
+        <v>209</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="3"/>
+        <v>1.0367310289806925E-4</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="4"/>
+        <v>3.6731028980692464E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>51</v>
       </c>
@@ -2437,8 +5146,29 @@
       <c r="K60">
         <v>0.97076023391800004</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>513</v>
+      </c>
+      <c r="M60">
+        <v>498</v>
+      </c>
+      <c r="N60">
+        <v>15</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="3"/>
+        <v>2.3529411764705885E-3</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="4"/>
+        <v>-0.76470588235294112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>52</v>
       </c>
@@ -2475,8 +5205,29 @@
       <c r="K61">
         <v>0.94174757281599997</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>515</v>
+      </c>
+      <c r="M61">
+        <v>485</v>
+      </c>
+      <c r="N61">
+        <v>30</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="3"/>
+        <v>4.7058823529411769E-3</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="4"/>
+        <v>-0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>53</v>
       </c>
@@ -2513,8 +5264,29 @@
       <c r="K62">
         <v>0.91262135922300003</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>515</v>
+      </c>
+      <c r="M62">
+        <v>470</v>
+      </c>
+      <c r="N62">
+        <v>45</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="3"/>
+        <v>7.058823529411765E-3</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="4"/>
+        <v>-0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>54</v>
       </c>
@@ -2551,8 +5323,29 @@
       <c r="K63">
         <v>0.904854368932</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>515</v>
+      </c>
+      <c r="M63">
+        <v>466</v>
+      </c>
+      <c r="N63">
+        <v>49</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="3"/>
+        <v>7.6862745098039221E-3</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="4"/>
+        <v>-0.2313725490196078</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>55</v>
       </c>
@@ -2589,8 +5382,29 @@
       <c r="K64">
         <v>0.89320388349500002</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>515</v>
+      </c>
+      <c r="M64">
+        <v>460</v>
+      </c>
+      <c r="N64">
+        <v>55</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="3"/>
+        <v>8.6274509803921581E-3</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="4"/>
+        <v>-0.13725490196078421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>56</v>
       </c>
@@ -2627,8 +5441,29 @@
       <c r="K65">
         <v>0.94219653179200002</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>519</v>
+      </c>
+      <c r="M65">
+        <v>489</v>
+      </c>
+      <c r="N65">
+        <v>30</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="3"/>
+        <v>1.4881306636086477E-3</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="4"/>
+        <v>-0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>57</v>
       </c>
@@ -2666,8 +5501,29 @@
       <c r="K66">
         <v>0.94003868471999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>517</v>
+      </c>
+      <c r="M66">
+        <v>486</v>
+      </c>
+      <c r="N66">
+        <v>31</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="3"/>
+        <v>1.5377350190622693E-3</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="4"/>
+        <v>-0.51372549019607838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>58</v>
       </c>
@@ -2683,7 +5539,7 @@
         <v>1.2649110640673505E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E69" si="5">10^2.5</f>
+        <f t="shared" ref="E67:E69" si="8">10^2.5</f>
         <v>316.22776601683825</v>
       </c>
       <c r="F67">
@@ -2705,8 +5561,29 @@
       <c r="K67">
         <v>0.90135396518400002</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>517</v>
+      </c>
+      <c r="M67">
+        <v>466</v>
+      </c>
+      <c r="N67">
+        <v>51</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="3"/>
+        <v>2.5298221281347013E-3</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="4"/>
+        <v>-0.19999999999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>59</v>
       </c>
@@ -2722,7 +5599,7 @@
         <v>1.2649110640673505E-2</v>
       </c>
       <c r="E68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F68">
@@ -2744,8 +5621,29 @@
       <c r="K68">
         <v>0.89980732177300005</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>519</v>
+      </c>
+      <c r="M68">
+        <v>467</v>
+      </c>
+      <c r="N68">
+        <v>52</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>2.5794264835883227E-3</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="4"/>
+        <v>-0.18431372549019606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>60</v>
       </c>
@@ -2761,7 +5659,7 @@
         <v>1.2649110640673505E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F69">
@@ -2783,8 +5681,29 @@
       <c r="K69">
         <v>0.868471953578</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>517</v>
+      </c>
+      <c r="M69">
+        <v>449</v>
+      </c>
+      <c r="N69">
+        <v>68</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>3.373096170846268E-3</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666638E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>61</v>
       </c>
@@ -2820,8 +5739,29 @@
       <c r="K70">
         <v>0.92787524366499996</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>513</v>
+      </c>
+      <c r="M70">
+        <v>476</v>
+      </c>
+      <c r="N70">
+        <v>37</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>5.8039215686274512E-4</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="4"/>
+        <v>-0.41960784313725491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>62</v>
       </c>
@@ -2858,8 +5798,29 @@
       <c r="K71">
         <v>0.89668615984400002</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>513</v>
+      </c>
+      <c r="M71">
+        <v>460</v>
+      </c>
+      <c r="N71">
+        <v>53</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>8.3137254901960791E-4</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="4"/>
+        <v>-0.16862745098039211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>63</v>
       </c>
@@ -2896,8 +5857,29 @@
       <c r="K72">
         <v>0.88888888888899997</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>513</v>
+      </c>
+      <c r="M72">
+        <v>456</v>
+      </c>
+      <c r="N72">
+        <v>57</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>8.9411764705882356E-4</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="4"/>
+        <v>-0.10588235294117646</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>64</v>
       </c>
@@ -2934,8 +5916,29 @@
       <c r="K73">
         <v>0.86964980544699999</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>514</v>
+      </c>
+      <c r="M73">
+        <v>447</v>
+      </c>
+      <c r="N73">
+        <v>67</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>1.0509803921568627E-3</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="4"/>
+        <v>5.0980392156862703E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>65</v>
       </c>
@@ -2972,20 +5975,41 @@
       <c r="K74">
         <v>0.876712328767</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>511</v>
+      </c>
+      <c r="M74">
+        <v>448</v>
+      </c>
+      <c r="N74">
+        <v>63</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>9.8823529411764719E-4</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="4"/>
+        <v>-1.1764705882352832E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>66</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B134" si="6">E75*F75</f>
+        <f t="shared" ref="B75:B134" si="9">E75*F75</f>
         <v>3.1622776601683804</v>
       </c>
       <c r="C75">
         <v>4</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D134" si="7">C75/E75</f>
+        <f t="shared" ref="D75:D134" si="10">C75/E75</f>
         <v>1.2649110640673513E-3</v>
       </c>
       <c r="E75">
@@ -3010,20 +6034,41 @@
       <c r="K75">
         <v>0.88132295719800002</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>514</v>
+      </c>
+      <c r="M75">
+        <v>453</v>
+      </c>
+      <c r="N75">
+        <v>61</v>
+      </c>
+      <c r="P75">
+        <f t="shared" ref="P75:P134" si="11">1/E75</f>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" ref="Q75:Q134" si="12">D75*(N75/255)</f>
+        <v>3.0258656826709189E-4</v>
+      </c>
+      <c r="R75">
+        <f t="shared" ref="R75:R134" si="13">(Q75-P75)/P75</f>
+        <v>-4.313725490196077E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>67</v>
       </c>
       <c r="B76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999947</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673513E-3</v>
       </c>
       <c r="E76">
@@ -3049,20 +6094,41 @@
       <c r="K76">
         <v>0.90856031128400006</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>514</v>
+      </c>
+      <c r="M76">
+        <v>467</v>
+      </c>
+      <c r="N76">
+        <v>47</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="12"/>
+        <v>2.3314047063202164E-4</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="13"/>
+        <v>-0.26274509803921559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>68</v>
       </c>
       <c r="B77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683803</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673513E-3</v>
       </c>
       <c r="E77">
@@ -3088,20 +6154,41 @@
       <c r="K77">
         <v>0.88974854932299996</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>517</v>
+      </c>
+      <c r="M77">
+        <v>460</v>
+      </c>
+      <c r="N77">
+        <v>57</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="12"/>
+        <v>2.8274482608564323E-4</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="13"/>
+        <v>-0.10588235294117651</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>69</v>
       </c>
       <c r="B78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673513E-3</v>
       </c>
       <c r="E78">
@@ -3127,20 +6214,41 @@
       <c r="K78">
         <v>0.87961165048500001</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>515</v>
+      </c>
+      <c r="M78">
+        <v>453</v>
+      </c>
+      <c r="N78">
+        <v>62</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="12"/>
+        <v>3.0754700381245402E-4</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="13"/>
+        <v>-2.7450980392156963E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>70</v>
       </c>
       <c r="B79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>316.22776601683807</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673513E-3</v>
       </c>
       <c r="E79">
@@ -3166,20 +6274,41 @@
       <c r="K79">
         <v>0.78947368421099995</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>513</v>
+      </c>
+      <c r="M79">
+        <v>405</v>
+      </c>
+      <c r="N79">
+        <v>108</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="12"/>
+        <v>5.3572703889911348E-4</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="13"/>
+        <v>0.69411764705882351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>71</v>
       </c>
       <c r="B80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E80">
@@ -3203,20 +6332,41 @@
       <c r="K80">
         <v>0.87524366471699999</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>513</v>
+      </c>
+      <c r="M80">
+        <v>449</v>
+      </c>
+      <c r="N80">
+        <v>64</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="12"/>
+        <v>1.0039215686274511E-4</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="13"/>
+        <v>3.9215686274510254E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>72</v>
       </c>
       <c r="B81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683764</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E81">
@@ -3241,20 +6391,41 @@
       <c r="K81">
         <v>0.87719298245599997</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>513</v>
+      </c>
+      <c r="M81">
+        <v>450</v>
+      </c>
+      <c r="N81">
+        <v>63</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="12"/>
+        <v>9.8823529411764711E-5</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="13"/>
+        <v>-1.1764705882352939E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>73</v>
       </c>
       <c r="B82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E82">
@@ -3279,20 +6450,41 @@
       <c r="K82">
         <v>0.85714285714299998</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>511</v>
+      </c>
+      <c r="M82">
+        <v>438</v>
+      </c>
+      <c r="N82">
+        <v>73</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="12"/>
+        <v>1.1450980392156862E-4</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="13"/>
+        <v>0.14509803921568618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>74</v>
       </c>
       <c r="B83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>316.22776601683785</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E83">
@@ -3317,20 +6509,41 @@
       <c r="K83">
         <v>0.79880478087600004</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>502</v>
+      </c>
+      <c r="M83">
+        <v>401</v>
+      </c>
+      <c r="N83">
+        <v>101</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="12"/>
+        <v>1.584313725490196E-4</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="13"/>
+        <v>0.584313725490196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>75</v>
       </c>
       <c r="B84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E84">
@@ -3355,13 +6568,34 @@
       <c r="K84">
         <v>0.407239819005</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>442</v>
+      </c>
+      <c r="M84">
+        <v>180</v>
+      </c>
+      <c r="N84">
+        <v>262</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="12"/>
+        <v>4.1098039215686273E-4</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="13"/>
+        <v>3.1098039215686271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>76</v>
       </c>
       <c r="B85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="C85">
@@ -3369,7 +6603,7 @@
         <v>12.649110640673522</v>
       </c>
       <c r="D85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673522</v>
       </c>
       <c r="E85">
@@ -3393,13 +6627,34 @@
       <c r="K85">
         <v>0.99415204678400004</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>513</v>
+      </c>
+      <c r="M85">
+        <v>510</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="12"/>
+        <v>1.4881306636086496E-3</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="13"/>
+        <v>-0.851186933639135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>77</v>
       </c>
       <c r="B86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.31622776601683766</v>
       </c>
       <c r="C86">
@@ -3407,7 +6662,7 @@
         <v>12.649110640673522</v>
       </c>
       <c r="D86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673522</v>
       </c>
       <c r="E86">
@@ -3432,21 +6687,42 @@
       <c r="K86">
         <v>0.98635477582800002</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>513</v>
+      </c>
+      <c r="M86">
+        <v>506</v>
+      </c>
+      <c r="N86">
+        <v>7</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="12"/>
+        <v>3.472304881753516E-3</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="13"/>
+        <v>-0.65276951182464837</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>78</v>
       </c>
       <c r="B87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:C109" si="8">C86</f>
+        <f t="shared" ref="C87:C109" si="14">C86</f>
         <v>12.649110640673522</v>
       </c>
       <c r="D87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673522</v>
       </c>
       <c r="E87">
@@ -3471,21 +6747,42 @@
       <c r="K87">
         <v>0.97660818713499997</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>513</v>
+      </c>
+      <c r="M87">
+        <v>501</v>
+      </c>
+      <c r="N87">
+        <v>12</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="12"/>
+        <v>5.9525226544345985E-3</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="13"/>
+        <v>-0.40474773455654017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>79</v>
       </c>
       <c r="B88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1622776601683786</v>
       </c>
       <c r="C88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673522</v>
       </c>
       <c r="E88">
@@ -3510,21 +6807,42 @@
       <c r="K88">
         <v>0.96296296296299999</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>513</v>
+      </c>
+      <c r="M88">
+        <v>494</v>
+      </c>
+      <c r="N88">
+        <v>19</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="12"/>
+        <v>9.4248275361881149E-3</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="13"/>
+        <v>-5.7517246381188526E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>80</v>
       </c>
       <c r="B89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673522</v>
       </c>
       <c r="E89">
@@ -3549,21 +6867,42 @@
       <c r="K89">
         <v>0.96881091617899995</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>513</v>
+      </c>
+      <c r="M89">
+        <v>497</v>
+      </c>
+      <c r="N89">
+        <v>16</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="12"/>
+        <v>7.9366968725794653E-3</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="13"/>
+        <v>-0.20633031274205349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>81</v>
       </c>
       <c r="B90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.31622776601683827</v>
       </c>
       <c r="C90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999999973E-2</v>
       </c>
       <c r="E90">
@@ -3588,21 +6927,42 @@
       <c r="K90">
         <v>0.97678916827899998</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>517</v>
+      </c>
+      <c r="M90">
+        <v>505</v>
+      </c>
+      <c r="N90">
+        <v>12</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="12"/>
+        <v>1.8823529411764693E-3</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="13"/>
+        <v>-0.40474773455654017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>82</v>
       </c>
       <c r="B91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999999973E-2</v>
       </c>
       <c r="E91">
@@ -3628,25 +6988,46 @@
       <c r="K91">
         <v>0.96531791907499997</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>519</v>
+      </c>
+      <c r="M91">
+        <v>501</v>
+      </c>
+      <c r="N91">
+        <v>18</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="12"/>
+        <v>2.8235294117647039E-3</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="13"/>
+        <v>-0.10712160183481033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>83</v>
       </c>
       <c r="B92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1622776601683826</v>
       </c>
       <c r="C92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999999973E-2</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92:E94" si="9">10^2.5</f>
+        <f t="shared" ref="E92:E94" si="15">10^2.5</f>
         <v>316.22776601683825</v>
       </c>
       <c r="F92">
@@ -3668,25 +7049,46 @@
       <c r="K92">
         <v>0.97098646034799996</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>517</v>
+      </c>
+      <c r="M92">
+        <v>502</v>
+      </c>
+      <c r="N92">
+        <v>15</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="12"/>
+        <v>2.3529411764705867E-3</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="13"/>
+        <v>-0.25593466819567523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>84</v>
       </c>
       <c r="B93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.000000000000007</v>
       </c>
       <c r="C93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999999973E-2</v>
       </c>
       <c r="E93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F93">
@@ -3708,25 +7110,46 @@
       <c r="K93">
         <v>0.96905222437100003</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>517</v>
+      </c>
+      <c r="M93">
+        <v>501</v>
+      </c>
+      <c r="N93">
+        <v>16</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="12"/>
+        <v>2.5098039215686258E-3</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="13"/>
+        <v>-0.2063303127420536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>85</v>
       </c>
       <c r="B94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683825</v>
       </c>
       <c r="C94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999999973E-2</v>
       </c>
       <c r="E94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F94">
@@ -3748,21 +7171,42 @@
       <c r="K94">
         <v>0.93786407767000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>515</v>
+      </c>
+      <c r="M94">
+        <v>483</v>
+      </c>
+      <c r="N94">
+        <v>32</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="12"/>
+        <v>5.0196078431372516E-3</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="13"/>
+        <v>0.5873393745158928</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>86</v>
       </c>
       <c r="B95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673521E-2</v>
       </c>
       <c r="E95">
@@ -3786,21 +7230,42 @@
       <c r="K95">
         <v>0.96491228070199997</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>513</v>
+      </c>
+      <c r="M95">
+        <v>495</v>
+      </c>
+      <c r="N95">
+        <v>18</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="12"/>
+        <v>8.9287839816518967E-4</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="13"/>
+        <v>-0.10712160183481034</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>87</v>
       </c>
       <c r="B96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1622776601683764</v>
       </c>
       <c r="C96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673521E-2</v>
       </c>
       <c r="E96">
@@ -3825,21 +7290,42 @@
       <c r="K96">
         <v>0.96491228070199997</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>513</v>
+      </c>
+      <c r="M96">
+        <v>495</v>
+      </c>
+      <c r="N96">
+        <v>18</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="12"/>
+        <v>8.9287839816518967E-4</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="13"/>
+        <v>-0.10712160183481034</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>88</v>
       </c>
       <c r="B97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673521E-2</v>
       </c>
       <c r="E97">
@@ -3864,21 +7350,42 @@
       <c r="K97">
         <v>0.95711500974700003</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>513</v>
+      </c>
+      <c r="M97">
+        <v>491</v>
+      </c>
+      <c r="N97">
+        <v>22</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="12"/>
+        <v>1.0912958199796763E-3</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="13"/>
+        <v>9.1295819979676299E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>89</v>
       </c>
       <c r="B98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683785</v>
       </c>
       <c r="C98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673521E-2</v>
       </c>
       <c r="E98">
@@ -3903,21 +7410,42 @@
       <c r="K98">
         <v>0.96296296296299999</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>513</v>
+      </c>
+      <c r="M98">
+        <v>494</v>
+      </c>
+      <c r="N98">
+        <v>19</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="12"/>
+        <v>9.4248275361881136E-4</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="13"/>
+        <v>-5.7517246381188658E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>90</v>
       </c>
       <c r="B99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="C99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673521E-2</v>
       </c>
       <c r="E99">
@@ -3942,21 +7470,42 @@
       <c r="K99">
         <v>0.94324853229000005</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>511</v>
+      </c>
+      <c r="M99">
+        <v>482</v>
+      </c>
+      <c r="N99">
+        <v>29</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="12"/>
+        <v>1.4385263081550278E-3</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="13"/>
+        <v>0.4385263081550278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>91</v>
       </c>
       <c r="B100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1622776601683804</v>
       </c>
       <c r="C100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E100">
@@ -3981,21 +7530,42 @@
       <c r="K100">
         <v>0.95357833655699997</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>517</v>
+      </c>
+      <c r="M100">
+        <v>493</v>
+      </c>
+      <c r="N100">
+        <v>24</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="12"/>
+        <v>3.7647058823529414E-4</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="13"/>
+        <v>0.19050453088691974</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>92</v>
       </c>
       <c r="B101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999947</v>
       </c>
       <c r="C101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E101">
@@ -4021,21 +7591,42 @@
       <c r="K101">
         <v>0.94163424124499995</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>514</v>
+      </c>
+      <c r="M101">
+        <v>484</v>
+      </c>
+      <c r="N101">
+        <v>30</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="12"/>
+        <v>4.7058823529411766E-4</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="13"/>
+        <v>0.4881306636086496</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>93</v>
       </c>
       <c r="B102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683803</v>
       </c>
       <c r="C102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E102">
@@ -4061,21 +7652,42 @@
       <c r="K102">
         <v>0.94152046783599996</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>513</v>
+      </c>
+      <c r="M102">
+        <v>483</v>
+      </c>
+      <c r="N102">
+        <v>30</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="12"/>
+        <v>4.7058823529411766E-4</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="13"/>
+        <v>0.4881306636086496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>94</v>
       </c>
       <c r="B103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="C103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E103">
@@ -4101,21 +7713,42 @@
       <c r="K103">
         <v>0.93933463796500005</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>511</v>
+      </c>
+      <c r="M103">
+        <v>480</v>
+      </c>
+      <c r="N103">
+        <v>31</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="12"/>
+        <v>4.862745098039216E-4</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="13"/>
+        <v>0.53773501906227128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>95</v>
       </c>
       <c r="B104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>316.22776601683807</v>
       </c>
       <c r="C104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E104">
@@ -4141,21 +7774,42 @@
       <c r="K104">
         <v>0.91960784313699995</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>510</v>
+      </c>
+      <c r="M104">
+        <v>469</v>
+      </c>
+      <c r="N104">
+        <v>41</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="12"/>
+        <v>6.4313725490196087E-4</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="13"/>
+        <v>1.0337785735984881</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>96</v>
       </c>
       <c r="B105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673522E-3</v>
       </c>
       <c r="E105">
@@ -4179,21 +7833,42 @@
       <c r="K105">
         <v>0.96686159844099995</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>513</v>
+      </c>
+      <c r="M105">
+        <v>496</v>
+      </c>
+      <c r="N105">
+        <v>17</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="12"/>
+        <v>8.4327404271156815E-5</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="13"/>
+        <v>-0.15672595728843189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>97</v>
       </c>
       <c r="B106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683764</v>
       </c>
       <c r="C106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673522E-3</v>
       </c>
       <c r="E106">
@@ -4218,21 +7893,42 @@
       <c r="K106">
         <v>0.93957115009699999</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>513</v>
+      </c>
+      <c r="M106">
+        <v>482</v>
+      </c>
+      <c r="N106">
+        <v>31</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="12"/>
+        <v>1.5377350190622712E-4</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="13"/>
+        <v>0.53773501906227106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>98</v>
       </c>
       <c r="B107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="C107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673522E-3</v>
       </c>
       <c r="E107">
@@ -4257,21 +7953,42 @@
       <c r="K107">
         <v>0.93359375</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>512</v>
+      </c>
+      <c r="M107">
+        <v>478</v>
+      </c>
+      <c r="N107">
+        <v>34</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="12"/>
+        <v>1.6865480854231363E-4</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="13"/>
+        <v>0.68654808542313617</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>99</v>
       </c>
       <c r="B108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>316.22776601683785</v>
       </c>
       <c r="C108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673522E-3</v>
       </c>
       <c r="E108">
@@ -4296,21 +8013,42 @@
       <c r="K108">
         <v>0.90316205533600002</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>506</v>
+      </c>
+      <c r="M108">
+        <v>457</v>
+      </c>
+      <c r="N108">
+        <v>49</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="12"/>
+        <v>2.4306134172274611E-4</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="13"/>
+        <v>1.4306134172274612</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>100</v>
       </c>
       <c r="B109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
       <c r="C109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.649110640673522</v>
       </c>
       <c r="D109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673522E-3</v>
       </c>
       <c r="E109">
@@ -4335,20 +8073,41 @@
       <c r="K109">
         <v>0.78048780487799996</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>492</v>
+      </c>
+      <c r="M109">
+        <v>384</v>
+      </c>
+      <c r="N109">
+        <v>108</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="12"/>
+        <v>5.3572703889911391E-4</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="13"/>
+        <v>4.3572703889911386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>101</v>
       </c>
       <c r="B110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="C110">
         <v>40</v>
       </c>
       <c r="D110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="E110">
@@ -4372,20 +8131,41 @@
       <c r="K110">
         <v>0.99415204678400004</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>513</v>
+      </c>
+      <c r="M110">
+        <v>510</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="12"/>
+        <v>4.7058823529411769E-3</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="13"/>
+        <v>-0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>102</v>
       </c>
       <c r="B111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.31622776601683766</v>
       </c>
       <c r="C111">
         <v>40</v>
       </c>
       <c r="D111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="E111">
@@ -4410,20 +8190,41 @@
       <c r="K111">
         <v>0.99220272904499995</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>513</v>
+      </c>
+      <c r="M111">
+        <v>509</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="12"/>
+        <v>6.2745098039215692E-3</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="13"/>
+        <v>-0.37254901960784309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>103</v>
       </c>
       <c r="B112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C112">
         <v>40</v>
       </c>
       <c r="D112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="E112">
@@ -4448,20 +8249,41 @@
       <c r="K112">
         <v>0.97660818713499997</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>513</v>
+      </c>
+      <c r="M112">
+        <v>501</v>
+      </c>
+      <c r="N112">
+        <v>12</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="12"/>
+        <v>1.8823529411764708E-2</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="13"/>
+        <v>0.88235294117647078</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>104</v>
       </c>
       <c r="B113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1622776601683786</v>
       </c>
       <c r="C113">
         <v>40</v>
       </c>
       <c r="D113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="E113">
@@ -4486,20 +8308,41 @@
       <c r="K113">
         <v>0.98635477582800002</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>513</v>
+      </c>
+      <c r="M113">
+        <v>506</v>
+      </c>
+      <c r="N113">
+        <v>7</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="12"/>
+        <v>1.0980392156862745E-2</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="13"/>
+        <v>9.8039215686274508E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>105</v>
       </c>
       <c r="B114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C114">
         <v>40</v>
       </c>
       <c r="D114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="E114">
@@ -4524,20 +8367,41 @@
       <c r="K114">
         <v>0.97855750487299997</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>513</v>
+      </c>
+      <c r="M114">
+        <v>502</v>
+      </c>
+      <c r="N114">
+        <v>11</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="12"/>
+        <v>1.7254901960784313E-2</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="13"/>
+        <v>0.72549019607843124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>106</v>
       </c>
       <c r="B115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.31622776601683827</v>
       </c>
       <c r="C115">
         <v>40</v>
       </c>
       <c r="D115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673505</v>
       </c>
       <c r="E115">
@@ -4562,20 +8426,41 @@
       <c r="K115">
         <v>0.98259187620900001</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>517</v>
+      </c>
+      <c r="M115">
+        <v>508</v>
+      </c>
+      <c r="N115">
+        <v>9</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="12"/>
+        <v>4.4643919908259428E-3</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="13"/>
+        <v>0.41176470588235287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>107</v>
       </c>
       <c r="B116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C116">
         <v>40</v>
       </c>
       <c r="D116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673505</v>
       </c>
       <c r="E116">
@@ -4601,24 +8486,45 @@
       <c r="K116">
         <v>0.99226305609300003</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>517</v>
+      </c>
+      <c r="M116">
+        <v>513</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="12"/>
+        <v>1.9841742181448637E-3</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="13"/>
+        <v>-0.37254901960784309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>108</v>
       </c>
       <c r="B117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1622776601683826</v>
       </c>
       <c r="C117">
         <v>40</v>
       </c>
       <c r="D117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673505</v>
       </c>
       <c r="E117">
-        <f t="shared" ref="E117:E119" si="10">10^2.5</f>
+        <f t="shared" ref="E117:E119" si="16">10^2.5</f>
         <v>316.22776601683825</v>
       </c>
       <c r="F117">
@@ -4640,24 +8546,45 @@
       <c r="K117">
         <v>0.98065764023199997</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>517</v>
+      </c>
+      <c r="M117">
+        <v>507</v>
+      </c>
+      <c r="N117">
+        <v>10</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="12"/>
+        <v>4.9604355453621591E-3</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="13"/>
+        <v>0.56862745098039214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>109</v>
       </c>
       <c r="B118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.000000000000007</v>
       </c>
       <c r="C118">
         <v>40</v>
       </c>
       <c r="D118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673505</v>
       </c>
       <c r="E118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F118">
@@ -4679,24 +8606,45 @@
       <c r="K118">
         <v>0.99032882011599999</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>517</v>
+      </c>
+      <c r="M118">
+        <v>512</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="12"/>
+        <v>2.4802177726810795E-3</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="13"/>
+        <v>-0.2156862745098039</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>110</v>
       </c>
       <c r="B119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683825</v>
       </c>
       <c r="C119">
         <v>40</v>
       </c>
       <c r="D119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12649110640673505</v>
       </c>
       <c r="E119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>316.22776601683825</v>
       </c>
       <c r="F119">
@@ -4718,20 +8666,41 @@
       <c r="K119">
         <v>0.98245614035100004</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>513</v>
+      </c>
+      <c r="M119">
+        <v>504</v>
+      </c>
+      <c r="N119">
+        <v>9</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="12"/>
+        <v>4.4643919908259428E-3</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="13"/>
+        <v>0.41176470588235287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>111</v>
       </c>
       <c r="B120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C120">
         <v>40</v>
       </c>
       <c r="D120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
       <c r="E120">
@@ -4755,20 +8724,41 @@
       <c r="K120">
         <v>0.98440545809000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>513</v>
+      </c>
+      <c r="M120">
+        <v>505</v>
+      </c>
+      <c r="N120">
+        <v>8</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="12"/>
+        <v>1.2549019607843138E-3</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="13"/>
+        <v>0.25490196078431371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>112</v>
       </c>
       <c r="B121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1622776601683764</v>
       </c>
       <c r="C121">
         <v>40</v>
       </c>
       <c r="D121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
       <c r="E121">
@@ -4793,20 +8783,41 @@
       <c r="K121">
         <v>0.99025341130599998</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>513</v>
+      </c>
+      <c r="M121">
+        <v>508</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="12"/>
+        <v>7.8431372549019605E-4</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="13"/>
+        <v>-0.21568627450980396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>113</v>
       </c>
       <c r="B122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C122">
         <v>40</v>
       </c>
       <c r="D122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
       <c r="E122">
@@ -4831,20 +8842,41 @@
       <c r="K122">
         <v>0.97855750487299997</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>513</v>
+      </c>
+      <c r="M122">
+        <v>502</v>
+      </c>
+      <c r="N122">
+        <v>11</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="12"/>
+        <v>1.7254901960784314E-3</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="13"/>
+        <v>0.72549019607843135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>114</v>
       </c>
       <c r="B123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683785</v>
       </c>
       <c r="C123">
         <v>40</v>
       </c>
       <c r="D123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
       <c r="E123">
@@ -4869,20 +8901,41 @@
       <c r="K123">
         <v>0.98635477582800002</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>513</v>
+      </c>
+      <c r="M123">
+        <v>506</v>
+      </c>
+      <c r="N123">
+        <v>7</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="12"/>
+        <v>1.0980392156862745E-3</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="13"/>
+        <v>9.8039215686274467E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>115</v>
       </c>
       <c r="B124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="C124">
         <v>40</v>
       </c>
       <c r="D124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
       <c r="E124">
@@ -4907,20 +8960,41 @@
       <c r="K124">
         <v>0.97855750487299997</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>513</v>
+      </c>
+      <c r="M124">
+        <v>502</v>
+      </c>
+      <c r="N124">
+        <v>11</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="12"/>
+        <v>1.7254901960784314E-3</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="13"/>
+        <v>0.72549019607843135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>116</v>
       </c>
       <c r="B125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1622776601683804</v>
       </c>
       <c r="C125">
         <v>40</v>
       </c>
       <c r="D125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673512E-2</v>
       </c>
       <c r="E125">
@@ -4945,20 +9019,41 @@
       <c r="K125">
         <v>0.98259187620900001</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>517</v>
+      </c>
+      <c r="M125">
+        <v>508</v>
+      </c>
+      <c r="N125">
+        <v>9</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="12"/>
+        <v>4.4643919908259457E-4</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="13"/>
+        <v>0.41176470588235287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>117</v>
       </c>
       <c r="B126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999947</v>
       </c>
       <c r="C126">
         <v>40</v>
       </c>
       <c r="D126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673512E-2</v>
       </c>
       <c r="E126">
@@ -4984,20 +9079,41 @@
       <c r="K126">
         <v>0.98065764023199997</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>517</v>
+      </c>
+      <c r="M126">
+        <v>507</v>
+      </c>
+      <c r="N126">
+        <v>10</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="12"/>
+        <v>4.9604355453621615E-4</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="13"/>
+        <v>0.56862745098039202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>118</v>
       </c>
       <c r="B127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683803</v>
       </c>
       <c r="C127">
         <v>40</v>
       </c>
       <c r="D127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673512E-2</v>
       </c>
       <c r="E127">
@@ -5023,20 +9139,41 @@
       <c r="K127">
         <v>0.98635477582800002</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>513</v>
+      </c>
+      <c r="M127">
+        <v>506</v>
+      </c>
+      <c r="N127">
+        <v>7</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="12"/>
+        <v>3.4723048817535129E-4</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="13"/>
+        <v>9.8039215686274342E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>119</v>
       </c>
       <c r="B128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="C128">
         <v>40</v>
       </c>
       <c r="D128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673512E-2</v>
       </c>
       <c r="E128">
@@ -5062,20 +9199,41 @@
       <c r="K128">
         <v>0.97847358121299999</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>511</v>
+      </c>
+      <c r="M128">
+        <v>500</v>
+      </c>
+      <c r="N128">
+        <v>11</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="12"/>
+        <v>5.4564790998983773E-4</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="13"/>
+        <v>0.72549019607843102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>120</v>
       </c>
       <c r="B129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>316.22776601683807</v>
       </c>
       <c r="C129">
         <v>40</v>
       </c>
       <c r="D129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2649110640673512E-2</v>
       </c>
       <c r="E129">
@@ -5101,20 +9259,41 @@
       <c r="K129">
         <v>0.91929133858300005</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>508</v>
+      </c>
+      <c r="M129">
+        <v>467</v>
+      </c>
+      <c r="N129">
+        <v>41</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="11"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="12"/>
+        <v>2.0337785735984864E-3</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="13"/>
+        <v>5.4313725490196081</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>121</v>
       </c>
       <c r="B130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C130">
         <v>40</v>
       </c>
       <c r="D130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E130">
@@ -5138,20 +9317,41 @@
       <c r="K130">
         <v>0.988304093567</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>513</v>
+      </c>
+      <c r="M130">
+        <v>507</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="12"/>
+        <v>9.4117647058823535E-5</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="13"/>
+        <v>-5.8823529411764698E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>122</v>
       </c>
       <c r="B131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.622776601683764</v>
       </c>
       <c r="C131">
         <v>40</v>
       </c>
       <c r="D131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E131">
@@ -5176,20 +9376,41 @@
       <c r="K131">
         <v>0.98245614035100004</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>513</v>
+      </c>
+      <c r="M131">
+        <v>504</v>
+      </c>
+      <c r="N131">
+        <v>9</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="12"/>
+        <v>1.4117647058823528E-4</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="13"/>
+        <v>0.41176470588235276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>123</v>
       </c>
       <c r="B132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="C132">
         <v>40</v>
       </c>
       <c r="D132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E132">
@@ -5214,20 +9435,41 @@
       <c r="K132">
         <v>0.95694716242699995</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>511</v>
+      </c>
+      <c r="M132">
+        <v>489</v>
+      </c>
+      <c r="N132">
+        <v>22</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="12"/>
+        <v>3.4509803921568626E-4</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="13"/>
+        <v>2.4509803921568625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>124</v>
       </c>
       <c r="B133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>316.22776601683785</v>
       </c>
       <c r="C133">
         <v>40</v>
       </c>
       <c r="D133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E133">
@@ -5252,20 +9494,41 @@
       <c r="K133">
         <v>0.92460317460300001</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>504</v>
+      </c>
+      <c r="M133">
+        <v>466</v>
+      </c>
+      <c r="N133">
+        <v>38</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="12"/>
+        <v>5.96078431372549E-4</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="13"/>
+        <v>4.9607843137254894</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>125</v>
       </c>
       <c r="B134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
       <c r="C134">
         <v>40</v>
       </c>
       <c r="D134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E134">
@@ -5290,8 +9553,30 @@
       <c r="K134">
         <v>0.74743326488700002</v>
       </c>
+      <c r="L134">
+        <v>487</v>
+      </c>
+      <c r="M134">
+        <v>364</v>
+      </c>
+      <c r="N134">
+        <v>123</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="11"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="12"/>
+        <v>1.9294117647058824E-3</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="13"/>
+        <v>18.294117647058822</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ModelRuns/WeatheringParamStudy/model_parameter_and_output_summary_wxing_5x5x5.xlsx
+++ b/ModelRuns/WeatheringParamStudy/model_parameter_and_output_summary_wxing_5x5x5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="2200" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="2200" windowWidth="24840" windowHeight="17420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F105" workbookViewId="0">
-      <selection activeCell="S127" sqref="S127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
